--- a/data/hotels_by_city/Houston/Houston_shard_257.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_257.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="457">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d10758755-Reviews-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Hampton-Inn-Suites-Houston-I-10-West-Park-Row.h15963494.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,1248 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r598499498-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>10758755</t>
+  </si>
+  <si>
+    <t>598499498</t>
+  </si>
+  <si>
+    <t>07/22/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>I was in Houston for Dr appointment and have stayed in several different hotels but this is where I'll be staying from now on. Hotel is very nice and the beds are comfortable. We didn't wake up in time for breakfast but look forward to trying it next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Juli A, General Manager at Hampton Inn &amp; Suites Houston I-10 West Park Row, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>I was in Houston for Dr appointment and have stayed in several different hotels but this is where I'll be staying from now on. Hotel is very nice and the beds are comfortable. We didn't wake up in time for breakfast but look forward to trying it next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r596519290-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>596519290</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t>Classes in Houston.</t>
+  </si>
+  <si>
+    <t>A very safe and comfortable place to stay. Clean rooms, nice property with helpful and friendly staff. There are plenty of places to choose from to eat at as well. I wouldn't pass this place up if I were staying in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Juli A, General Manager at Hampton Inn &amp; Suites Houston I-10 West Park Row, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>A very safe and comfortable place to stay. Clean rooms, nice property with helpful and friendly staff. There are plenty of places to choose from to eat at as well. I wouldn't pass this place up if I were staying in the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r588908675-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>588908675</t>
+  </si>
+  <si>
+    <t>06/19/2018</t>
+  </si>
+  <si>
+    <t>Vacatation</t>
+  </si>
+  <si>
+    <t>this place was clean the people there was friendly and kind  I really enjoyed my stayed there I would stayed there anytime I visit Houston  my daughter recommended it and I did not regret it at all. the staff there was really nice, I missed my flight and they were really helpful to booked me and my daughter on the next flight out. I recommend it to any one travelling to Houston next time.   MoreShow less</t>
+  </si>
+  <si>
+    <t>Juli A, General Manager at Hampton Inn &amp; Suites Houston I-10 West Park Row, responded to this reviewResponded June 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2018</t>
+  </si>
+  <si>
+    <t>this place was clean the people there was friendly and kind  I really enjoyed my stayed there I would stayed there anytime I visit Houston  my daughter recommended it and I did not regret it at all. the staff there was really nice, I missed my flight and they were really helpful to booked me and my daughter on the next flight out. I recommend it to any one travelling to Houston next time.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r585160078-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>585160078</t>
+  </si>
+  <si>
+    <t>06/04/2018</t>
+  </si>
+  <si>
+    <t>Nice Location</t>
+  </si>
+  <si>
+    <t>Great location! Fairly new hotel with great customer service. The rooms were nice and clean. The only issue I had was my king size bed looked like a queen. The complimentary breakfast was good. I regret not utilizing the pool area. I will be returning.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Juli A, General Manager at Hampton Inn &amp; Suites Houston I-10 West Park Row, responded to this reviewResponded June 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2018</t>
+  </si>
+  <si>
+    <t>Great location! Fairly new hotel with great customer service. The rooms were nice and clean. The only issue I had was my king size bed looked like a queen. The complimentary breakfast was good. I regret not utilizing the pool area. I will be returning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r583468934-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>583468934</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>Never disappointed</t>
+  </si>
+  <si>
+    <t>We stayed with Hampton almost on every trip. Service and product is very consistent. The staff is friendly, the value is excellent and we know what we are giving. Highly recommended if you’re looking for the same quality of experience each time you visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We stayed with Hampton almost on every trip. Service and product is very consistent. The staff is friendly, the value is excellent and we know what we are giving. Highly recommended if you’re looking for the same quality of experience each time you visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r582721858-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>582721858</t>
+  </si>
+  <si>
+    <t>05/25/2018</t>
+  </si>
+  <si>
+    <t>Hampton/Hilton can do better</t>
+  </si>
+  <si>
+    <t>Apparently we Came during a softball tournament in the area and the hotel was overrun by kids playing softball in the parking lot near the cars! And parents tailgating in the parking lot blocking parking stalls and access into and out of the property on one side. Management did nothing about this and allowed them to take the property completely over. I just hope no ones car was damaged! Breakfast left a lot to be desired. We chose this property partly because of the included breakfast but were forced to eat out because of the low quality. The bed was also oddly squeaky. We would not stay at this property again. Hilton can certainly do much better than this, it was not what we expected. It was not terrible, but it was also not very good. MoreShow less</t>
+  </si>
+  <si>
+    <t>Anthony B, Manager at Hampton Inn &amp; Suites Houston I-10 West Park Row, responded to this reviewResponded May 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2018</t>
+  </si>
+  <si>
+    <t>Apparently we Came during a softball tournament in the area and the hotel was overrun by kids playing softball in the parking lot near the cars! And parents tailgating in the parking lot blocking parking stalls and access into and out of the property on one side. Management did nothing about this and allowed them to take the property completely over. I just hope no ones car was damaged! Breakfast left a lot to be desired. We chose this property partly because of the included breakfast but were forced to eat out because of the low quality. The bed was also oddly squeaky. We would not stay at this property again. Hilton can certainly do much better than this, it was not what we expected. It was not terrible, but it was also not very good. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r573575104-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>573575104</t>
+  </si>
+  <si>
+    <t>04/15/2018</t>
+  </si>
+  <si>
+    <t>Better luck next door</t>
+  </si>
+  <si>
+    <t>Breakfast food is cheap and cheaply prepared. Community oatmeal pot is discusting a probably violates health codes. Computer in business center would not open common files .png etc. Noise from ambulances going to nearby hospitals will wake you, but that is something the hotel cannot control.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Javier F, Manager at Hampton Inn &amp; Suites Houston I-10 West Park Row, responded to this reviewResponded April 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2018</t>
+  </si>
+  <si>
+    <t>Breakfast food is cheap and cheaply prepared. Community oatmeal pot is discusting a probably violates health codes. Computer in business center would not open common files .png etc. Noise from ambulances going to nearby hospitals will wake you, but that is something the hotel cannot control.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r573370114-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>573370114</t>
+  </si>
+  <si>
+    <t>04/14/2018</t>
+  </si>
+  <si>
+    <t>Clean, comfortable stay</t>
+  </si>
+  <si>
+    <t>We were in town for an event and  stayed here 2 nights. This location is newer and it shows! Clean rooms, friendly staff, quiet location. The hotel is set back off of I-10, so no road noise. Many restaurants, shopping nearby. Definitely would stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>We were in town for an event and  stayed here 2 nights. This location is newer and it shows! Clean rooms, friendly staff, quiet location. The hotel is set back off of I-10, so no road noise. Many restaurants, shopping nearby. Definitely would stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r569193293-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>569193293</t>
+  </si>
+  <si>
+    <t>03/27/2018</t>
+  </si>
+  <si>
+    <t>A Nice Hotel</t>
+  </si>
+  <si>
+    <t>We stayed 4 times at this hotel in Feb. and March of 2018.  It is one of the better values in the lower-to-mid price range in the West Houston / Katy area.  A different egg dish was served at breakfast every day and the quality of the breakfast was good.  Coffee and tea were available in the lobby throughout the day and into the evenings at no extra charge. There was security in the parking lot late at night.  A commercial-grade washer and dryer were available and cost only $ 1 each.  There were 2 elevators instead of only 1.  The staff tried hard to be helpful and cheerful most of the time.  Housekeeping was good but not excellent. Our room was missed one day and the bathtub could have been more clean at check-in on another stay. Otherwise, the hotel was clean throughout.MoreShow less</t>
+  </si>
+  <si>
+    <t>Javier F, Manager at Hampton Inn &amp; Suites Houston I-10 West Park Row, responded to this reviewResponded March 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2018</t>
+  </si>
+  <si>
+    <t>We stayed 4 times at this hotel in Feb. and March of 2018.  It is one of the better values in the lower-to-mid price range in the West Houston / Katy area.  A different egg dish was served at breakfast every day and the quality of the breakfast was good.  Coffee and tea were available in the lobby throughout the day and into the evenings at no extra charge. There was security in the parking lot late at night.  A commercial-grade washer and dryer were available and cost only $ 1 each.  There were 2 elevators instead of only 1.  The staff tried hard to be helpful and cheerful most of the time.  Housekeeping was good but not excellent. Our room was missed one day and the bathtub could have been more clean at check-in on another stay. Otherwise, the hotel was clean throughout.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r566072951-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566072951</t>
+  </si>
+  <si>
+    <t>03/12/2018</t>
+  </si>
+  <si>
+    <t>Good Value for Money</t>
+  </si>
+  <si>
+    <t>Excellent value for money, even though it was was about 20 minutes from the office I was visiting, it was priced just about right.  Room was comfortable and complimentary breakfast was okay.  Practically new hotel from what I could see.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Javier F, Manager at Hampton Inn &amp; Suites Houston I-10 West Park Row, responded to this reviewResponded March 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2018</t>
+  </si>
+  <si>
+    <t>Excellent value for money, even though it was was about 20 minutes from the office I was visiting, it was priced just about right.  Room was comfortable and complimentary breakfast was okay.  Practically new hotel from what I could see.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r566044695-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566044695</t>
+  </si>
+  <si>
+    <t>Great new hotel in a convenient, quiet and safe location</t>
+  </si>
+  <si>
+    <t>After staying in other Hampton Inn hotels in Houston for business, the I-10 West Park Row is now my favorite by far. It is convenient to the TX-8 Beltway, but in a newly-developed section of the Energy Corridor. Because there aren't a lot of businesses right by the hotel yet, the area is very quiet, which is nice to find in the middle of a busy city. You also don't have the noise of highway traffic to deal with. The hotel is only a couple years old, but still looks like it was just built. The hotel and rooms are extremely clean, modern and spacious and the hotel has all the amenities you need with a pool, nice fitness room, business center, Suite Shop (snacks and drinks for purchase in the lobby), and free hot breakfast with To-Go Bags during the week. The parking lot is ample and well-lit with several key-card entrances around the building. The staff was very friendly and accommodating. You can drive straight down Park Row just 2 short miles to a variety of shops, restaurants, drugstores, Walmart, H-E-B grocery store, convenience stores and more. Something important to me because I'm a light sleeper when I travel is that my room's HVAC was thermostat-controlled and the unit was very quiet when running.  Some hotels have the HVAC unit positioned right in front of the desk, so you will either burn up or freeze to death if...After staying in other Hampton Inn hotels in Houston for business, the I-10 West Park Row is now my favorite by far. It is convenient to the TX-8 Beltway, but in a newly-developed section of the Energy Corridor. Because there aren't a lot of businesses right by the hotel yet, the area is very quiet, which is nice to find in the middle of a busy city. You also don't have the noise of highway traffic to deal with. The hotel is only a couple years old, but still looks like it was just built. The hotel and rooms are extremely clean, modern and spacious and the hotel has all the amenities you need with a pool, nice fitness room, business center, Suite Shop (snacks and drinks for purchase in the lobby), and free hot breakfast with To-Go Bags during the week. The parking lot is ample and well-lit with several key-card entrances around the building. The staff was very friendly and accommodating. You can drive straight down Park Row just 2 short miles to a variety of shops, restaurants, drugstores, Walmart, H-E-B grocery store, convenience stores and more. Something important to me because I'm a light sleeper when I travel is that my room's HVAC was thermostat-controlled and the unit was very quiet when running.  Some hotels have the HVAC unit positioned right in front of the desk, so you will either burn up or freeze to death if you work from the desk, like I do. This one was not in front of the desk - hooray! The room had a very comfortable bed, refrigerator, microwave and large walk-in shower.  I stayed on the 3rd floor and it was extremely quiet.  I did read some of the other reviews about being able to hear people walking on the floors above you, and I did hear footsteps a little on my last night, but it wasn't loud enough to be an issue.  I will be back again in a few weeks for business and have already reserved my room at this hotel.  I always stay at a Hampton Inn for business because it is our company's preferred brand and we have corporate rate, so I find myself comparing them to each other. The only things missing from this Hampton Inn that would make it complete are 1) Manager's Reception in the evenings, 2) fresh cookies in the lobby in the afternoon, 3) lemon water dispenser in the lobby.  And, yes those small touches can make a stay so much better when you travel frequently.MoreShow less</t>
+  </si>
+  <si>
+    <t>After staying in other Hampton Inn hotels in Houston for business, the I-10 West Park Row is now my favorite by far. It is convenient to the TX-8 Beltway, but in a newly-developed section of the Energy Corridor. Because there aren't a lot of businesses right by the hotel yet, the area is very quiet, which is nice to find in the middle of a busy city. You also don't have the noise of highway traffic to deal with. The hotel is only a couple years old, but still looks like it was just built. The hotel and rooms are extremely clean, modern and spacious and the hotel has all the amenities you need with a pool, nice fitness room, business center, Suite Shop (snacks and drinks for purchase in the lobby), and free hot breakfast with To-Go Bags during the week. The parking lot is ample and well-lit with several key-card entrances around the building. The staff was very friendly and accommodating. You can drive straight down Park Row just 2 short miles to a variety of shops, restaurants, drugstores, Walmart, H-E-B grocery store, convenience stores and more. Something important to me because I'm a light sleeper when I travel is that my room's HVAC was thermostat-controlled and the unit was very quiet when running.  Some hotels have the HVAC unit positioned right in front of the desk, so you will either burn up or freeze to death if...After staying in other Hampton Inn hotels in Houston for business, the I-10 West Park Row is now my favorite by far. It is convenient to the TX-8 Beltway, but in a newly-developed section of the Energy Corridor. Because there aren't a lot of businesses right by the hotel yet, the area is very quiet, which is nice to find in the middle of a busy city. You also don't have the noise of highway traffic to deal with. The hotel is only a couple years old, but still looks like it was just built. The hotel and rooms are extremely clean, modern and spacious and the hotel has all the amenities you need with a pool, nice fitness room, business center, Suite Shop (snacks and drinks for purchase in the lobby), and free hot breakfast with To-Go Bags during the week. The parking lot is ample and well-lit with several key-card entrances around the building. The staff was very friendly and accommodating. You can drive straight down Park Row just 2 short miles to a variety of shops, restaurants, drugstores, Walmart, H-E-B grocery store, convenience stores and more. Something important to me because I'm a light sleeper when I travel is that my room's HVAC was thermostat-controlled and the unit was very quiet when running.  Some hotels have the HVAC unit positioned right in front of the desk, so you will either burn up or freeze to death if you work from the desk, like I do. This one was not in front of the desk - hooray! The room had a very comfortable bed, refrigerator, microwave and large walk-in shower.  I stayed on the 3rd floor and it was extremely quiet.  I did read some of the other reviews about being able to hear people walking on the floors above you, and I did hear footsteps a little on my last night, but it wasn't loud enough to be an issue.  I will be back again in a few weeks for business and have already reserved my room at this hotel.  I always stay at a Hampton Inn for business because it is our company's preferred brand and we have corporate rate, so I find myself comparing them to each other. The only things missing from this Hampton Inn that would make it complete are 1) Manager's Reception in the evenings, 2) fresh cookies in the lobby in the afternoon, 3) lemon water dispenser in the lobby.  And, yes those small touches can make a stay so much better when you travel frequently.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r562356410-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>562356410</t>
+  </si>
+  <si>
+    <t>02/23/2018</t>
+  </si>
+  <si>
+    <t>Great New Hotel</t>
+  </si>
+  <si>
+    <t>My job in Houston's Energy Corridor requires me to stay in the area every other week.  After trying several options in the area, there is no need to look anymore.  The Hampton on Park Row is a new hotel with a great staff.  The accommodations in the rooms are modern and comfortable.  The laundry and exercises room are spacious with new equipment.  Plenty of parking and the lot is well lit.  They even provide a hot breakfast for you every morning -- I'm not sure what else you need for a great stay!!</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r557589993-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>557589993</t>
+  </si>
+  <si>
+    <t>01/31/2018</t>
+  </si>
+  <si>
+    <t>Dependable and consistent</t>
+  </si>
+  <si>
+    <t>We have stayed here several times over the past year, most recently due to post-flood work being done in our home. Good facility, close to where we needed to be, at a good price. We will likely be back in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Javier F, Manager at Hampton Inn &amp; Suites Houston I-10 West Park Row, responded to this reviewResponded February 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2018</t>
+  </si>
+  <si>
+    <t>We have stayed here several times over the past year, most recently due to post-flood work being done in our home. Good facility, close to where we needed to be, at a good price. We will likely be back in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r556582487-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>556582487</t>
+  </si>
+  <si>
+    <t>01/26/2018</t>
+  </si>
+  <si>
+    <t>Mishaps Corrected</t>
+  </si>
+  <si>
+    <t>Late arrival to hotel. We get to room unpack and realize TV does not work. Took awhile to figure out with front desk. Agent finally moves us to another room other end of the hall.  Noisy room. Kids everywhere slamming doors and running halls with Dads. Upstairs above our room noisy. Bottom line: stay on high floor if able. Nice Newer Hotel. Continental Breakfast tasted like last of week till our final day on Wed. all fresh. Odd. At least they had something complimentary to grab n go before starting the day. Good location.MoreShow less</t>
+  </si>
+  <si>
+    <t>Javier F, General Manager at Hampton Inn &amp; Suites Houston I-10 West Park Row, responded to this reviewResponded February 1, 2018</t>
+  </si>
+  <si>
+    <t>Late arrival to hotel. We get to room unpack and realize TV does not work. Took awhile to figure out with front desk. Agent finally moves us to another room other end of the hall.  Noisy room. Kids everywhere slamming doors and running halls with Dads. Upstairs above our room noisy. Bottom line: stay on high floor if able. Nice Newer Hotel. Continental Breakfast tasted like last of week till our final day on Wed. all fresh. Odd. At least they had something complimentary to grab n go before starting the day. Good location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r556555843-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>556555843</t>
+  </si>
+  <si>
+    <t>Hampton Inn Review</t>
+  </si>
+  <si>
+    <t>A lovely hotel... only a couple of years old.  Wonderful breakfast.  Nice outdoor pool.  Convenient laundry facilities on site.  Comfortable beds.  Great location.  Close to I-10. Many dining establishments nearby.  Hotel personnel were fantastic.MoreShow less</t>
+  </si>
+  <si>
+    <t>A lovely hotel... only a couple of years old.  Wonderful breakfast.  Nice outdoor pool.  Convenient laundry facilities on site.  Comfortable beds.  Great location.  Close to I-10. Many dining establishments nearby.  Hotel personnel were fantastic.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r554458363-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>554458363</t>
+  </si>
+  <si>
+    <t>01/17/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bed was extremely comfy. No security safe in the room. Hotel clean and cute. Plenty of parking, and if u park in back, u could be closer to the back entrance; it was cold, so that mattered for us. There is breakfast, but very standard, so go down EARLY otherwise the good stuff will run out. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r550757383-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>550757383</t>
+  </si>
+  <si>
+    <t>01/01/2018</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>This is a good hotel with great breakfast. The front desk is very skilled. The rooms are very quiet.the hotel is located very close to the freeway. Restaurants are short distance from the hotel. Hot breakfast served daily.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Javier F, General Manager at Hampton Inn &amp; Suites Houston I-10 West Park Row, responded to this reviewResponded January 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 3, 2018</t>
+  </si>
+  <si>
+    <t>This is a good hotel with great breakfast. The front desk is very skilled. The rooms are very quiet.the hotel is located very close to the freeway. Restaurants are short distance from the hotel. Hot breakfast served daily.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r546851510-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>546851510</t>
+  </si>
+  <si>
+    <t>12/12/2017</t>
+  </si>
+  <si>
+    <t>Tough One To Quantify</t>
+  </si>
+  <si>
+    <t>The positives were over the top and hit my key criteria for a hotel stay.- Sparkling clean- Extremely quiet, rooms have hydraulic closing mechanism to prevent slamming!- Reliable internet- And add great location and price/valueBut, several demerits cause me to give a  3.5 out of 5. Here's why:- Expect a cold shower after 6:30 a.m.- Cold water in hot water urn in lobby throughout stay.- Business center printer did not function.- Even on the top floor, heavy walkers were audible.- Piercing fire alarm activated twice, once at midnight resulting in a sleepless night - a noise I will never forget.Woud I stay here again? Maybe, but would seek suitable alternatives if availableMoreShow less</t>
+  </si>
+  <si>
+    <t>Javier F, General Manager at Hampton Inn &amp; Suites Houston I-10 West Park Row, responded to this reviewResponded December 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 13, 2017</t>
+  </si>
+  <si>
+    <t>The positives were over the top and hit my key criteria for a hotel stay.- Sparkling clean- Extremely quiet, rooms have hydraulic closing mechanism to prevent slamming!- Reliable internet- And add great location and price/valueBut, several demerits cause me to give a  3.5 out of 5. Here's why:- Expect a cold shower after 6:30 a.m.- Cold water in hot water urn in lobby throughout stay.- Business center printer did not function.- Even on the top floor, heavy walkers were audible.- Piercing fire alarm activated twice, once at midnight resulting in a sleepless night - a noise I will never forget.Woud I stay here again? Maybe, but would seek suitable alternatives if availableMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r544895594-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>544895594</t>
+  </si>
+  <si>
+    <t>12/03/2017</t>
+  </si>
+  <si>
+    <t>Best experience I ever had! Great team and amenities, breakfast is rich and coffee is great! Awesome suite!</t>
+  </si>
+  <si>
+    <t>I will absolutely recommend the hotel to all my friends and family! Friendly and helpful staff that is always there to help. They have a free shuttle every day! Beautiful suite with everything you will need for the stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Javier F, General Manager at Hampton Inn &amp; Suites Houston I-10 West Park Row, responded to this reviewResponded December 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 6, 2017</t>
+  </si>
+  <si>
+    <t>I will absolutely recommend the hotel to all my friends and family! Friendly and helpful staff that is always there to help. They have a free shuttle every day! Beautiful suite with everything you will need for the stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r544331924-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>544331924</t>
+  </si>
+  <si>
+    <t>11/30/2017</t>
+  </si>
+  <si>
+    <t>Beds To hard</t>
+  </si>
+  <si>
+    <t>The English speaking staff here is good!Our check in experience  was outstanding. The rooms were nice and clean,but the beds were to hard for comfort,preventing a good night's sleep to be rested for the next days' activities!!!The breakfast experience was good but the staff did not speak English so when the bacon ran out,it was hard to get more!Also, the fruit had little variety but the tea was awesome! MoreShow less</t>
+  </si>
+  <si>
+    <t>The English speaking staff here is good!Our check in experience  was outstanding. The rooms were nice and clean,but the beds were to hard for comfort,preventing a good night's sleep to be rested for the next days' activities!!!The breakfast experience was good but the staff did not speak English so when the bacon ran out,it was hard to get more!Also, the fruit had little variety but the tea was awesome! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r544123512-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>544123512</t>
+  </si>
+  <si>
+    <t>11/29/2017</t>
+  </si>
+  <si>
+    <t>Brand new - West Houston I-10 area</t>
+  </si>
+  <si>
+    <t>This is a brand new hotel off I-10.  It worked very well for my stay while working in this area.I wasn't here very long, so can't comment on much.  But the bed was comfy.The only issue I noticed &amp; I brought it to the attention of management was that the room had obviously not been vacuumed near the beds as I found trash on the floor.  They immediately corrected the situation and apologized.I will be back when working again in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Javier F, General Manager at Hampton Inn &amp; Suites Houston I-10 West Park Row, responded to this reviewResponded December 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2017</t>
+  </si>
+  <si>
+    <t>This is a brand new hotel off I-10.  It worked very well for my stay while working in this area.I wasn't here very long, so can't comment on much.  But the bed was comfy.The only issue I noticed &amp; I brought it to the attention of management was that the room had obviously not been vacuumed near the beds as I found trash on the floor.  They immediately corrected the situation and apologized.I will be back when working again in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r542121454-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>542121454</t>
+  </si>
+  <si>
+    <t>11/19/2017</t>
+  </si>
+  <si>
+    <t>Double Payment</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel between 12-15 November. Really nice, clean and have good location.I paid full amount upon reservation ( 3 months ago) but hotel charged me same amount again (i saw that when i return to my country).Write this to help desk but no answer yet.MoreShow less</t>
+  </si>
+  <si>
+    <t>Javier F, Manager at Hampton Inn &amp; Suites Houston I-10 West Park Row, responded to this reviewResponded November 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2017</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel between 12-15 November. Really nice, clean and have good location.I paid full amount upon reservation ( 3 months ago) but hotel charged me same amount again (i saw that when i return to my country).Write this to help desk but no answer yet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r540967016-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>540967016</t>
+  </si>
+  <si>
+    <t>11/14/2017</t>
+  </si>
+  <si>
+    <t>Good hotel with necessary access for business trip</t>
+  </si>
+  <si>
+    <t>A good stay for 2 nights in this hotel. Room are spacious and confortable. There is a pool which is unfortunately not heated and most of the time in the shadow of the building therefore quite cold. Free WiFi access and breakfastMoreShow less</t>
+  </si>
+  <si>
+    <t>Javier F, General Manager at Hampton Inn &amp; Suites Houston I-10 West Park Row, responded to this reviewResponded November 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2017</t>
+  </si>
+  <si>
+    <t>A good stay for 2 nights in this hotel. Room are spacious and confortable. There is a pool which is unfortunately not heated and most of the time in the shadow of the building therefore quite cold. Free WiFi access and breakfastMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r540400283-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>540400283</t>
+  </si>
+  <si>
+    <t>11/12/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel. 10 overall</t>
+  </si>
+  <si>
+    <t>The only issue is my gos has it on the other side of the main road and it is behind another building of the same height. Would be nice to have water in the room that was cold for you when using digital keyMoreShow less</t>
+  </si>
+  <si>
+    <t>Javier F, General Manager at Hampton Inn &amp; Suites Houston I-10 West Park Row, responded to this reviewResponded November 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2017</t>
+  </si>
+  <si>
+    <t>The only issue is my gos has it on the other side of the main road and it is behind another building of the same height. Would be nice to have water in the room that was cold for you when using digital keyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r539883340-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>539883340</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>Loud AC Noise</t>
+  </si>
+  <si>
+    <t>The title explain itself.  Using the Digital Key, breakfast time and wifi info should be given on the app so we don't have to "truely" skip the frontdesk for any info we need or have to call frontdesk from the room for info.MoreShow less</t>
+  </si>
+  <si>
+    <t>The title explain itself.  Using the Digital Key, breakfast time and wifi info should be given on the app so we don't have to "truely" skip the frontdesk for any info we need or have to call frontdesk from the room for info.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r539422798-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>539422798</t>
+  </si>
+  <si>
+    <t>11/08/2017</t>
+  </si>
+  <si>
+    <t>New, Clean, Quiet</t>
+  </si>
+  <si>
+    <t>Hotel is right off of I-10.  Newer property with good beds, typically good Hampton breakfast, nice lobby area and helpful staff.  We were in town on way to doing some Hurricane relief work and stayed 2 nights here.  We enjoyed the company of other guests in the lobby watching a bit of the World Series.  Location is good for the west side of town.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Javier F, General Manager at Hampton Inn &amp; Suites Houston I-10 West Park Row, responded to this reviewResponded November 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2017</t>
+  </si>
+  <si>
+    <t>Hotel is right off of I-10.  Newer property with good beds, typically good Hampton breakfast, nice lobby area and helpful staff.  We were in town on way to doing some Hurricane relief work and stayed 2 nights here.  We enjoyed the company of other guests in the lobby watching a bit of the World Series.  Location is good for the west side of town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r538203853-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>538203853</t>
+  </si>
+  <si>
+    <t>11/03/2017</t>
+  </si>
+  <si>
+    <t>School Trip</t>
+  </si>
+  <si>
+    <t>The only thing that I did not like was that by 7am the breakfast was gone. I asked for Oatmeal and the staff member did not understand me. When I asked if there were going to bring more out and even though she said yes, it never came out.MoreShow less</t>
+  </si>
+  <si>
+    <t>The only thing that I did not like was that by 7am the breakfast was gone. I asked for Oatmeal and the staff member did not understand me. When I asked if there were going to bring more out and even though she said yes, it never came out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r536930052-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>536930052</t>
+  </si>
+  <si>
+    <t>10/29/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just stopping by </t>
+  </si>
+  <si>
+    <t>Very nice place to stay, clean, comfortable, and a close by location to move around the city area without all the hassle of the big city. Great atmosphere and all that is needed for a night stay. Now, although the check out time is at noon, the cleaning crew were knocking on my door at 9:00am...yes I forgot to hang the "Do Not Disturb" sign on the door. But having to take my wife to the emergency room and coming back from the emergency room at 2:30am; you would forget everything. I felt like "Really!...are you kidding me?". I complained at the front desk when I checked out, but the clerk didn't acknowledge the situation. I left the hotel very unhappy. My question is...isn't the cleaning staff aware of who's staying or leaving prior to anything? Other than that...what else can I say. I would not either recommend or not recommend this hotel because each individual has there own situational experiences. Would I stay in this hotel again? Maybe...maybe not, all depends on my current situation. MoreShow less</t>
+  </si>
+  <si>
+    <t>Javier F, Front Office Manager at Hampton Inn &amp; Suites Houston I-10 West Park Row, responded to this reviewResponded October 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2017</t>
+  </si>
+  <si>
+    <t>Very nice place to stay, clean, comfortable, and a close by location to move around the city area without all the hassle of the big city. Great atmosphere and all that is needed for a night stay. Now, although the check out time is at noon, the cleaning crew were knocking on my door at 9:00am...yes I forgot to hang the "Do Not Disturb" sign on the door. But having to take my wife to the emergency room and coming back from the emergency room at 2:30am; you would forget everything. I felt like "Really!...are you kidding me?". I complained at the front desk when I checked out, but the clerk didn't acknowledge the situation. I left the hotel very unhappy. My question is...isn't the cleaning staff aware of who's staying or leaving prior to anything? Other than that...what else can I say. I would not either recommend or not recommend this hotel because each individual has there own situational experiences. Would I stay in this hotel again? Maybe...maybe not, all depends on my current situation. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r533021266-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>533021266</t>
+  </si>
+  <si>
+    <t>10/14/2017</t>
+  </si>
+  <si>
+    <t>Very clean and comfortable!</t>
+  </si>
+  <si>
+    <t>This is a new hotel. Very clean and modern. Conveniently located to restaurants and outdoor activities in West Houston. Enjoyed the pool and hot breakfast. A great night's sleep. Will return next year!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Javier F, General Manager at Hampton Inn &amp; Suites Houston I-10 West Park Row, responded to this reviewResponded October 30, 2017</t>
+  </si>
+  <si>
+    <t>This is a new hotel. Very clean and modern. Conveniently located to restaurants and outdoor activities in West Houston. Enjoyed the pool and hot breakfast. A great night's sleep. Will return next year!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r527434606-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>527434606</t>
+  </si>
+  <si>
+    <t>09/25/2017</t>
+  </si>
+  <si>
+    <t>What a Hotel!</t>
+  </si>
+  <si>
+    <t>I must say this hotel is one of the nicest Hampton Inn's I have stayed at. Very very clean and very good customer service. The pool is hidden from the street area and the waterfalls were marvelous. I was a little disappointed that the digital key for the back gate did not work. Nor did the manual keys. I had bags to unload and had to wait for the front desk clerk to come out and open. I'm sure it was just a kink  or a low battery as the digital system is fairly new. I believe I even saw a houseman. Great experience. I come bi-weekly and usually stay at the Embassy. You guys are very close in service and cleanliness!  I think this will be my new home away from home. awesome job Hampton team.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2017</t>
+  </si>
+  <si>
+    <t>I must say this hotel is one of the nicest Hampton Inn's I have stayed at. Very very clean and very good customer service. The pool is hidden from the street area and the waterfalls were marvelous. I was a little disappointed that the digital key for the back gate did not work. Nor did the manual keys. I had bags to unload and had to wait for the front desk clerk to come out and open. I'm sure it was just a kink  or a low battery as the digital system is fairly new. I believe I even saw a houseman. Great experience. I come bi-weekly and usually stay at the Embassy. You guys are very close in service and cleanliness!  I think this will be my new home away from home. awesome job Hampton team.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r512701639-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>512701639</t>
+  </si>
+  <si>
+    <t>08/14/2017</t>
+  </si>
+  <si>
+    <t>Excellent Stay!!!!</t>
+  </si>
+  <si>
+    <t>I had a great stay at this location. The rooms are very nice and clean. Cindy was exceptional throughout the check-in process. She followed up to make sure everything was okay and this was very much appreciated. Excellent Customer Service!!!  I will return!!!</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r504342687-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>504342687</t>
+  </si>
+  <si>
+    <t>07/21/2017</t>
+  </si>
+  <si>
+    <t>Nice quiet location</t>
+  </si>
+  <si>
+    <t>Had to be in Houston for a few nights on business. The hotel and surrounding area looks new, and the rooms were nice. Probably had the nicest desk chair I've ever seen! The beds were relatively comfortable, and they did have a foam pillow so I didn't have to ask for one. Breakfast was the typical Hampton Inn fare, and the prices were more than reasonable. The only complaint was my toilet was plugged up and almost overflowed. But they fixed it right away. The odd item was the closet next to the bathroom, and they shared a door that rolled back and forth. So if the closet was open, you couldn't get into the shower. Might have been a great idea in theory, but not so much in execution.Also, I like to swim laps, but the hotel was outside, plus it was a strange oval shape, so not really conducive to laps. It looked like a nice pool however.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Had to be in Houston for a few nights on business. The hotel and surrounding area looks new, and the rooms were nice. Probably had the nicest desk chair I've ever seen! The beds were relatively comfortable, and they did have a foam pillow so I didn't have to ask for one. Breakfast was the typical Hampton Inn fare, and the prices were more than reasonable. The only complaint was my toilet was plugged up and almost overflowed. But they fixed it right away. The odd item was the closet next to the bathroom, and they shared a door that rolled back and forth. So if the closet was open, you couldn't get into the shower. Might have been a great idea in theory, but not so much in execution.Also, I like to swim laps, but the hotel was outside, plus it was a strange oval shape, so not really conducive to laps. It looked like a nice pool however.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r503353343-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>503353343</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Filthy Hotel</t>
+  </si>
+  <si>
+    <t>If there was a lower rating this hotel would receive it.  Hair on bedding, towels, in the shower and on the toilets.  Urine on the toilet.  Dirty microwave and floor. Stain (which look like blood) on the comforter.  I saw about six rooms before settling for a less filthy room. I had been on the road for seven hours driving and both me and my young son was exhausted and we had to go to every floor checking different rooms that the front desk clerk had switched us to.  It was exhausting and very frustrating for the hotel to be so dirty.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2017</t>
+  </si>
+  <si>
+    <t>If there was a lower rating this hotel would receive it.  Hair on bedding, towels, in the shower and on the toilets.  Urine on the toilet.  Dirty microwave and floor. Stain (which look like blood) on the comforter.  I saw about six rooms before settling for a less filthy room. I had been on the road for seven hours driving and both me and my young son was exhausted and we had to go to every floor checking different rooms that the front desk clerk had switched us to.  It was exhausting and very frustrating for the hotel to be so dirty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r492403807-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>492403807</t>
+  </si>
+  <si>
+    <t>06/12/2017</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>The hotel is relatively new and still has that new hotel smell and feel.  We were only here one night but enjoyed the staff and room very much. Room was great and we slept well.  Breakfast was good as well.A great choice if you need to be in this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>The hotel is relatively new and still has that new hotel smell and feel.  We were only here one night but enjoyed the staff and room very much. Room was great and we slept well.  Breakfast was good as well.A great choice if you need to be in this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r491054862-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>491054862</t>
+  </si>
+  <si>
+    <t>06/06/2017</t>
+  </si>
+  <si>
+    <t>Phenomenal hotel</t>
+  </si>
+  <si>
+    <t>This hotel is pretty much brand new! It is amazing! The hotel is very modern! The staff were all amazing! The pool is great! The BBQ &amp; picnic area is a nice feature too! I wasn't expecting to walk around &amp; find that area!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>This hotel is pretty much brand new! It is amazing! The hotel is very modern! The staff were all amazing! The pool is great! The BBQ &amp; picnic area is a nice feature too! I wasn't expecting to walk around &amp; find that area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r488958467-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>488958467</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>HAMPTON INN AND SUITES 1-10 WEST PARK ROW HOUSTON TEXAS 77084</t>
+  </si>
+  <si>
+    <t>excellent service.  staff was very courteous (natalie, melissa, javier, maria among others) provided assistance at all times.  room was very clean. complementary breakfast and newspaper   was very good and appreciated. i would definitely recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2017</t>
+  </si>
+  <si>
+    <t>excellent service.  staff was very courteous (natalie, melissa, javier, maria among others) provided assistance at all times.  room was very clean. complementary breakfast and newspaper   was very good and appreciated. i would definitely recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r484541081-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>484541081</t>
+  </si>
+  <si>
+    <t>05/15/2017</t>
+  </si>
+  <si>
+    <t>Business Trip (NACE Training)</t>
+  </si>
+  <si>
+    <t>The hotel was clean and neat, as were the rooms.  Breakfast was prepared every day and that area was kept clean.  The staff provided restaurant recommendations and associated directions.  The hotel staff offered to assist with travel and shuttle service (from the hotel to the air port and back).MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel was clean and neat, as were the rooms.  Breakfast was prepared every day and that area was kept clean.  The staff provided restaurant recommendations and associated directions.  The hotel staff offered to assist with travel and shuttle service (from the hotel to the air port and back).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r482764248-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>482764248</t>
+  </si>
+  <si>
+    <t>05/08/2017</t>
+  </si>
+  <si>
+    <t>Great location, nice hotel</t>
+  </si>
+  <si>
+    <t>Slightly nicer than your usual Hampton Inn &amp; Suites: good pillows, clean. Nice TV, lots of channels. Bright bathroom.  But what I love most is the location: barely 5--6 minutes down Park Row to Fry, you'll find tons of retail, restaurants, and a Starbucks.MoreShow less</t>
+  </si>
+  <si>
+    <t>Slightly nicer than your usual Hampton Inn &amp; Suites: good pillows, clean. Nice TV, lots of channels. Bright bathroom.  But what I love most is the location: barely 5--6 minutes down Park Row to Fry, you'll find tons of retail, restaurants, and a Starbucks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r481976154-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>481976154</t>
+  </si>
+  <si>
+    <t>05/05/2017</t>
+  </si>
+  <si>
+    <t>Good location. Nice staff.</t>
+  </si>
+  <si>
+    <t>Nice place. I gave it 4 stars because the front desk staff was very friendly an de helpful. The room itself seems outdated and dismal.. but at least it's clean and decent. The breaksfast staff wasn't very friendly and when I asked for more milk for the coffee from a male worker there, he just grabbed the milk container and left. Not a word. Not a smile. Other than that, this hotel is not bad.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice place. I gave it 4 stars because the front desk staff was very friendly an de helpful. The room itself seems outdated and dismal.. but at least it's clean and decent. The breaksfast staff wasn't very friendly and when I asked for more milk for the coffee from a male worker there, he just grabbed the milk container and left. Not a word. Not a smile. Other than that, this hotel is not bad.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r475927569-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>475927569</t>
+  </si>
+  <si>
+    <t>04/15/2017</t>
+  </si>
+  <si>
+    <t>Houston Stay</t>
+  </si>
+  <si>
+    <t>The hotel is both clean and comfortable. Great customer service and special kudos to Melissa at the Fromt Deslk! The hotel is very convenient to my needs with my family living close by. Very easy to get into Houston,  the property and the surrounding venues. MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is both clean and comfortable. Great customer service and special kudos to Melissa at the Fromt Deslk! The hotel is very convenient to my needs with my family living close by. Very easy to get into Houston,  the property and the surrounding venues. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r475607860-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>475607860</t>
+  </si>
+  <si>
+    <t>04/14/2017</t>
+  </si>
+  <si>
+    <t>Great hotel!!</t>
+  </si>
+  <si>
+    <t>This hotel is a great place to stay. Comfortable,clean and the staff was fantastic! Good location. Complimentary breakfast was very good with a nice choice of food to pick from. Would stay here again and recommend it as well.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r473717634-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>473717634</t>
+  </si>
+  <si>
+    <t>04/08/2017</t>
+  </si>
+  <si>
+    <t>Houston Trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We enjoyed our stay. Great staff!  When we had a concern it was handled quickly and efficiently. The beds are so comfortable and my daughter just loves the free Wifi. We only stay in Hampton Inns or hotels within the Hampton group. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r468517519-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>468517519</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>Great new hotel!</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel to get some rest since we were traveling from Baton Rouge to Austin. I must say I can't regret I chose this one to stay. Keys were made upon arrival (we arrived at 1.40) and DJ or JD was friendly and attentive. Breakfast next morning was up to par and expectations. Keep it up! Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2017</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel to get some rest since we were traveling from Baton Rouge to Austin. I must say I can't regret I chose this one to stay. Keys were made upon arrival (we arrived at 1.40) and DJ or JD was friendly and attentive. Breakfast next morning was up to par and expectations. Keep it up! Thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r466378426-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>466378426</t>
+  </si>
+  <si>
+    <t>03/11/2017</t>
+  </si>
+  <si>
+    <t>Wish I could've found a clean room</t>
+  </si>
+  <si>
+    <t>They need a better cleaning crew! The hotel is perfect otherwise. The mattress in my room had a blood stain on the mattress protector! Ruined everything because the cleaning crew decided to be LAZY! Unacceptable! The front desk staff is great though! Thanks Erik and DJ! You did a great job considering the circumstances...I received a refund but was bummed out because I had to find another hotel so late at night.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2017</t>
+  </si>
+  <si>
+    <t>They need a better cleaning crew! The hotel is perfect otherwise. The mattress in my room had a blood stain on the mattress protector! Ruined everything because the cleaning crew decided to be LAZY! Unacceptable! The front desk staff is great though! Thanks Erik and DJ! You did a great job considering the circumstances...I received a refund but was bummed out because I had to find another hotel so late at night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r465225431-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>465225431</t>
+  </si>
+  <si>
+    <t>03/06/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel in the heart of the Energy Corridor</t>
+  </si>
+  <si>
+    <t>This is a great hotel.  Brand new.  The rooms are very big and very well laid out.  I was working a lot at night during this trip and felt very comfortable doing so.  The fitness room is huge too.  Great equipment.  Breakfast was great as well.  Most of all the staff at the hotel was very friendly and helpful.  Great hotel.  I'd recommend it to anyone working in the energy corridor or traveling to Houston on the weekend.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a great hotel.  Brand new.  The rooms are very big and very well laid out.  I was working a lot at night during this trip and felt very comfortable doing so.  The fitness room is huge too.  Great equipment.  Breakfast was great as well.  Most of all the staff at the hotel was very friendly and helpful.  Great hotel.  I'd recommend it to anyone working in the energy corridor or traveling to Houston on the weekend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r461627032-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>461627032</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t>Standard Hampton Inn experience - NEW HOTEL!</t>
+  </si>
+  <si>
+    <t>I'm always satisfied with my stay at the Hampton Inn - clean rooms, friendly staff, and a decent fitness facility/pool. I wish there were better items available on the continental breakfast line, but that's not limited to this location (Hampton Inn doesn't have top quality food, but it's no deal breaker.) I stay at this location every time I'm on the energy corridor. It's been open less than a year, and it still smells brand new. Everything is in great working order.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded February 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2017</t>
+  </si>
+  <si>
+    <t>I'm always satisfied with my stay at the Hampton Inn - clean rooms, friendly staff, and a decent fitness facility/pool. I wish there were better items available on the continental breakfast line, but that's not limited to this location (Hampton Inn doesn't have top quality food, but it's no deal breaker.) I stay at this location every time I'm on the energy corridor. It's been open less than a year, and it still smells brand new. Everything is in great working order.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r460828200-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>460828200</t>
+  </si>
+  <si>
+    <t>02/17/2017</t>
+  </si>
+  <si>
+    <t>Hampton inn houston</t>
+  </si>
+  <si>
+    <t>all good except would have preferred that the shuttle service runs 7 days a week instead of 5 days up to 8pm allowing guests to visit a restaurant.  A restaurant would benefit as there are only a Mexican and Chinese restaurants which you have to cross a busy highway.MoreShow less</t>
+  </si>
+  <si>
+    <t>all good except would have preferred that the shuttle service runs 7 days a week instead of 5 days up to 8pm allowing guests to visit a restaurant.  A restaurant would benefit as there are only a Mexican and Chinese restaurants which you have to cross a busy highway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r460146048-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>460146048</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t>I'm coming back!</t>
+  </si>
+  <si>
+    <t>Every employee that I encountered during my stay was happy, energetic and helpful. The hotel was clean and the location was more than perfect.  My only concern was how dim the parking lot is at night. If I ever have a need to stay in this area again... This is my choice!MoreShow less</t>
+  </si>
+  <si>
+    <t>Every employee that I encountered during my stay was happy, energetic and helpful. The hotel was clean and the location was more than perfect.  My only concern was how dim the parking lot is at night. If I ever have a need to stay in this area again... This is my choice!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r454575775-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>454575775</t>
+  </si>
+  <si>
+    <t>01/24/2017</t>
+  </si>
+  <si>
+    <t>Awesome staff &amp; awesome facility.</t>
+  </si>
+  <si>
+    <t>Awesome staff &amp; awesome facility. The staff were super friendly and very pleasant. They conversed &amp; entertained my son, while providing an excellent service. When asked about a place to eat, they explained the area and the type of food available. They hand wrote the name of a couple of restaurants. Very pleased with the establishment. Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Awesome staff &amp; awesome facility. The staff were super friendly and very pleasant. They conversed &amp; entertained my son, while providing an excellent service. When asked about a place to eat, they explained the area and the type of food available. They hand wrote the name of a couple of restaurants. Very pleased with the establishment. Thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r453757455-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>453757455</t>
+  </si>
+  <si>
+    <t>01/21/2017</t>
+  </si>
+  <si>
+    <t>KATY HOTEL</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel while in town for a soccer tournament. The hotel has easy access to IH 10 and is close to many great restaurants!  The staff was very friendly and accommodating!  The rooms were very clean and confortable!  MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel while in town for a soccer tournament. The hotel has easy access to IH 10 and is close to many great restaurants!  The staff was very friendly and accommodating!  The rooms were very clean and confortable!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r452537212-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>452537212</t>
+  </si>
+  <si>
+    <t>01/16/2017</t>
+  </si>
+  <si>
+    <t>Awesome Staff!!</t>
+  </si>
+  <si>
+    <t>We had reserved a room for 3 of us to attend the I-10 shootout.  Our entire girls soccer team was also staying at the hotel.  Not only were the staff very polite and helpful to us, but also to our entire team!!  Great experience!!MoreShow less</t>
+  </si>
+  <si>
+    <t>We had reserved a room for 3 of us to attend the I-10 shootout.  Our entire girls soccer team was also staying at the hotel.  Not only were the staff very polite and helpful to us, but also to our entire team!!  Great experience!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r445144317-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>445144317</t>
+  </si>
+  <si>
+    <t>12/17/2016</t>
+  </si>
+  <si>
+    <t>Shiny and New</t>
+  </si>
+  <si>
+    <t>Brand new Hotel, very nice accommodations and very clean.  No Bottled Water offered as normal at other sites as a Hilton Honors member.  Breakfast had fewer options than other Hampton Inns.  No Breakfast on the go waiting at desk as I passed by.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Brand new Hotel, very nice accommodations and very clean.  No Bottled Water offered as normal at other sites as a Hilton Honors member.  Breakfast had fewer options than other Hampton Inns.  No Breakfast on the go waiting at desk as I passed by.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r443261092-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>443261092</t>
+  </si>
+  <si>
+    <t>12/10/2016</t>
+  </si>
+  <si>
+    <t>We had a great experience at the Hampton inn in Houston the staff was very friendly they made sure that everything was great we will definitely recommend this to all of our friends and family we look forward to staying there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had a great experience at the Hampton inn in Houston the staff was very friendly they made sure that everything was great we will definitely recommend this to all of our friends and family we look forward to staying there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r439295943-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>439295943</t>
+  </si>
+  <si>
+    <t>11/22/2016</t>
+  </si>
+  <si>
+    <t>New hotel has a lot of potential.</t>
+  </si>
+  <si>
+    <t>Stayed here as it was the closest to the Berry Center and easier access to it. I was greeted by a very friendly person at the front desk (forgot her name) she got me checked in right away and answered a couple of questions i had about the area, and she also handed me a map of restaurants in the area, which was very helpful. Room was very nice,with a 35" tv ,small fridge, King size bed, work desk, plenty of wall sockets to charge things here,alarm clock, no radio though, bathroom only has a shower,but that's ok for a night. Only two problems with the shower, door wouldn't close properly,and it was a slow drain. Not deal breakers for me. Great exercise room too. There is a pool, but already too cold for swimming. I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Stayed here as it was the closest to the Berry Center and easier access to it. I was greeted by a very friendly person at the front desk (forgot her name) she got me checked in right away and answered a couple of questions i had about the area, and she also handed me a map of restaurants in the area, which was very helpful. Room was very nice,with a 35" tv ,small fridge, King size bed, work desk, plenty of wall sockets to charge things here,alarm clock, no radio though, bathroom only has a shower,but that's ok for a night. Only two problems with the shower, door wouldn't close properly,and it was a slow drain. Not deal breakers for me. Great exercise room too. There is a pool, but already too cold for swimming. I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r431796662-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>431796662</t>
+  </si>
+  <si>
+    <t>10/26/2016</t>
+  </si>
+  <si>
+    <t>A little bit of everything</t>
+  </si>
+  <si>
+    <t>I've stayed in Homewood Suites before and this one was okay. The staff is super nice and outgoing and helpful.  The building seems new-ish.  I wouldn't rate the cleanliness of the bathroom so high--and the shower heads are mildew-y. The hallways smell of some unknown odor. But, overall, for a quick stay, it has a small gym, small pool, small breakfast and social hour and small business room.  I was able to get everything done that I needed and a quiet night of sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>I've stayed in Homewood Suites before and this one was okay. The staff is super nice and outgoing and helpful.  The building seems new-ish.  I wouldn't rate the cleanliness of the bathroom so high--and the shower heads are mildew-y. The hallways smell of some unknown odor. But, overall, for a quick stay, it has a small gym, small pool, small breakfast and social hour and small business room.  I was able to get everything done that I needed and a quiet night of sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r428308916-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>428308916</t>
+  </si>
+  <si>
+    <t>10/15/2016</t>
+  </si>
+  <si>
+    <t>Close to hospitals. Great new hotel</t>
+  </si>
+  <si>
+    <t>This was a work trip but if I ever need to come back for work or pleasure I will stay here again. While it is new and you expect new opening pains I did not see or experience any.  Very nice. Desk staff are very helpful. Also helped us find places to eat.  MoreShow less</t>
+  </si>
+  <si>
+    <t>This was a work trip but if I ever need to come back for work or pleasure I will stay here again. While it is new and you expect new opening pains I did not see or experience any.  Very nice. Desk staff are very helpful. Also helped us find places to eat.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r423193145-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>423193145</t>
+  </si>
+  <si>
+    <t>09/27/2016</t>
+  </si>
+  <si>
+    <t>Great new hotel</t>
+  </si>
+  <si>
+    <t>Staff was wonderful and friendly. Rooms were great for all the electronic gadgets- especially extra charging stations for USB connects. Extra plugs for electrical gadgets. Great High Def TV- 48" TV! Comfortable beds and a great shower headMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Staff was wonderful and friendly. Rooms were great for all the electronic gadgets- especially extra charging stations for USB connects. Extra plugs for electrical gadgets. Great High Def TV- 48" TV! Comfortable beds and a great shower headMore</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1780,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1812,3948 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>80</v>
+      </c>
+      <c r="X6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>96</v>
+      </c>
+      <c r="X7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>105</v>
+      </c>
+      <c r="X8" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>105</v>
+      </c>
+      <c r="X9" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>119</v>
+      </c>
+      <c r="X10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>127</v>
+      </c>
+      <c r="O11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>128</v>
+      </c>
+      <c r="X11" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L12" t="s">
+        <v>134</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>127</v>
+      </c>
+      <c r="O12" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>128</v>
+      </c>
+      <c r="X12" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O13" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" t="s">
+        <v>146</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>147</v>
+      </c>
+      <c r="O14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>148</v>
+      </c>
+      <c r="X14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" t="s">
+        <v>154</v>
+      </c>
+      <c r="L15" t="s">
+        <v>155</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>147</v>
+      </c>
+      <c r="O15" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>156</v>
+      </c>
+      <c r="X15" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>159</v>
+      </c>
+      <c r="J16" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" t="s">
+        <v>160</v>
+      </c>
+      <c r="L16" t="s">
+        <v>161</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>148</v>
+      </c>
+      <c r="X16" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>164</v>
+      </c>
+      <c r="J17" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" t="s">
+        <v>166</v>
+      </c>
+      <c r="L17" t="s">
+        <v>167</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>147</v>
+      </c>
+      <c r="O17" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>169</v>
+      </c>
+      <c r="J18" t="s">
+        <v>170</v>
+      </c>
+      <c r="K18" t="s">
+        <v>171</v>
+      </c>
+      <c r="L18" t="s">
+        <v>172</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>173</v>
+      </c>
+      <c r="O18" t="s">
+        <v>89</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>174</v>
+      </c>
+      <c r="X18" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J19" t="s">
+        <v>179</v>
+      </c>
+      <c r="K19" t="s">
+        <v>180</v>
+      </c>
+      <c r="L19" t="s">
+        <v>181</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>173</v>
+      </c>
+      <c r="O19" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>182</v>
+      </c>
+      <c r="X19" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>185</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>186</v>
+      </c>
+      <c r="J20" t="s">
+        <v>187</v>
+      </c>
+      <c r="K20" t="s">
+        <v>188</v>
+      </c>
+      <c r="L20" t="s">
+        <v>189</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>141</v>
+      </c>
+      <c r="O20" t="s">
+        <v>61</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>190</v>
+      </c>
+      <c r="X20" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>194</v>
+      </c>
+      <c r="J21" t="s">
+        <v>195</v>
+      </c>
+      <c r="K21" t="s">
+        <v>196</v>
+      </c>
+      <c r="L21" t="s">
+        <v>197</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>141</v>
+      </c>
+      <c r="O21" t="s">
+        <v>89</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>190</v>
+      </c>
+      <c r="X21" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>199</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>200</v>
+      </c>
+      <c r="J22" t="s">
+        <v>201</v>
+      </c>
+      <c r="K22" t="s">
+        <v>202</v>
+      </c>
+      <c r="L22" t="s">
+        <v>203</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>141</v>
+      </c>
+      <c r="O22" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>204</v>
+      </c>
+      <c r="X22" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>208</v>
+      </c>
+      <c r="J23" t="s">
+        <v>209</v>
+      </c>
+      <c r="K23" t="s">
+        <v>210</v>
+      </c>
+      <c r="L23" t="s">
+        <v>211</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>141</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>212</v>
+      </c>
+      <c r="X23" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>215</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>216</v>
+      </c>
+      <c r="J24" t="s">
+        <v>217</v>
+      </c>
+      <c r="K24" t="s">
+        <v>218</v>
+      </c>
+      <c r="L24" t="s">
+        <v>219</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>141</v>
+      </c>
+      <c r="O24" t="s">
+        <v>61</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>220</v>
+      </c>
+      <c r="X24" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>223</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>224</v>
+      </c>
+      <c r="J25" t="s">
+        <v>225</v>
+      </c>
+      <c r="K25" t="s">
+        <v>226</v>
+      </c>
+      <c r="L25" t="s">
+        <v>227</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>141</v>
+      </c>
+      <c r="O25" t="s">
+        <v>61</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>228</v>
+      </c>
+      <c r="X25" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>231</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>232</v>
+      </c>
+      <c r="J26" t="s">
+        <v>233</v>
+      </c>
+      <c r="K26" t="s">
+        <v>234</v>
+      </c>
+      <c r="L26" t="s">
+        <v>235</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>141</v>
+      </c>
+      <c r="O26" t="s">
+        <v>61</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>228</v>
+      </c>
+      <c r="X26" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>237</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>238</v>
+      </c>
+      <c r="J27" t="s">
+        <v>239</v>
+      </c>
+      <c r="K27" t="s">
+        <v>240</v>
+      </c>
+      <c r="L27" t="s">
+        <v>241</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>242</v>
+      </c>
+      <c r="O27" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>243</v>
+      </c>
+      <c r="X27" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>246</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>247</v>
+      </c>
+      <c r="J28" t="s">
+        <v>248</v>
+      </c>
+      <c r="K28" t="s">
+        <v>249</v>
+      </c>
+      <c r="L28" t="s">
+        <v>250</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>242</v>
+      </c>
+      <c r="O28" t="s">
+        <v>89</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>243</v>
+      </c>
+      <c r="X28" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>252</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>253</v>
+      </c>
+      <c r="J29" t="s">
+        <v>254</v>
+      </c>
+      <c r="K29" t="s">
+        <v>255</v>
+      </c>
+      <c r="L29" t="s">
+        <v>256</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>242</v>
+      </c>
+      <c r="O29" t="s">
+        <v>79</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>257</v>
+      </c>
+      <c r="X29" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>260</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>261</v>
+      </c>
+      <c r="J30" t="s">
+        <v>262</v>
+      </c>
+      <c r="K30" t="s">
+        <v>263</v>
+      </c>
+      <c r="L30" t="s">
+        <v>264</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>242</v>
+      </c>
+      <c r="O30" t="s">
+        <v>79</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>265</v>
+      </c>
+      <c r="X30" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>267</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>268</v>
+      </c>
+      <c r="J31" t="s">
+        <v>269</v>
+      </c>
+      <c r="K31" t="s">
+        <v>270</v>
+      </c>
+      <c r="L31" t="s">
+        <v>271</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>272</v>
+      </c>
+      <c r="O31" t="s">
+        <v>61</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>273</v>
+      </c>
+      <c r="X31" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>276</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>277</v>
+      </c>
+      <c r="J32" t="s">
+        <v>278</v>
+      </c>
+      <c r="K32" t="s">
+        <v>279</v>
+      </c>
+      <c r="L32" t="s">
+        <v>280</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>281</v>
+      </c>
+      <c r="O32" t="s">
+        <v>282</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>283</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>284</v>
+      </c>
+      <c r="J33" t="s">
+        <v>285</v>
+      </c>
+      <c r="K33" t="s">
+        <v>286</v>
+      </c>
+      <c r="L33" t="s">
+        <v>287</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>288</v>
+      </c>
+      <c r="O33" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>290</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>291</v>
+      </c>
+      <c r="J34" t="s">
+        <v>292</v>
+      </c>
+      <c r="K34" t="s">
+        <v>293</v>
+      </c>
+      <c r="L34" t="s">
+        <v>294</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>288</v>
+      </c>
+      <c r="O34" t="s">
+        <v>89</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>295</v>
+      </c>
+      <c r="X34" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>298</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>299</v>
+      </c>
+      <c r="J35" t="s">
+        <v>300</v>
+      </c>
+      <c r="K35" t="s">
+        <v>301</v>
+      </c>
+      <c r="L35" t="s">
+        <v>302</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>303</v>
+      </c>
+      <c r="O35" t="s">
+        <v>89</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>295</v>
+      </c>
+      <c r="X35" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>305</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>306</v>
+      </c>
+      <c r="J36" t="s">
+        <v>307</v>
+      </c>
+      <c r="K36" t="s">
+        <v>308</v>
+      </c>
+      <c r="L36" t="s">
+        <v>309</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>310</v>
+      </c>
+      <c r="O36" t="s">
+        <v>89</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>295</v>
+      </c>
+      <c r="X36" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>312</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>313</v>
+      </c>
+      <c r="J37" t="s">
+        <v>314</v>
+      </c>
+      <c r="K37" t="s">
+        <v>315</v>
+      </c>
+      <c r="L37" t="s">
+        <v>316</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>317</v>
+      </c>
+      <c r="O37" t="s">
+        <v>282</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>318</v>
+      </c>
+      <c r="X37" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>321</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>322</v>
+      </c>
+      <c r="J38" t="s">
+        <v>323</v>
+      </c>
+      <c r="K38" t="s">
+        <v>324</v>
+      </c>
+      <c r="L38" t="s">
+        <v>325</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>317</v>
+      </c>
+      <c r="O38" t="s">
+        <v>61</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>295</v>
+      </c>
+      <c r="X38" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>327</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>328</v>
+      </c>
+      <c r="J39" t="s">
+        <v>329</v>
+      </c>
+      <c r="K39" t="s">
+        <v>330</v>
+      </c>
+      <c r="L39" t="s">
+        <v>331</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>317</v>
+      </c>
+      <c r="O39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>295</v>
+      </c>
+      <c r="X39" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>333</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>334</v>
+      </c>
+      <c r="J40" t="s">
+        <v>335</v>
+      </c>
+      <c r="K40" t="s">
+        <v>336</v>
+      </c>
+      <c r="L40" t="s">
+        <v>337</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>303</v>
+      </c>
+      <c r="O40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>295</v>
+      </c>
+      <c r="X40" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>339</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>340</v>
+      </c>
+      <c r="J41" t="s">
+        <v>341</v>
+      </c>
+      <c r="K41" t="s">
+        <v>342</v>
+      </c>
+      <c r="L41" t="s">
+        <v>343</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>303</v>
+      </c>
+      <c r="O41" t="s">
+        <v>89</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>295</v>
+      </c>
+      <c r="X41" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>345</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>346</v>
+      </c>
+      <c r="J42" t="s">
+        <v>347</v>
+      </c>
+      <c r="K42" t="s">
+        <v>348</v>
+      </c>
+      <c r="L42" t="s">
+        <v>349</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>303</v>
+      </c>
+      <c r="O42" t="s">
+        <v>79</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>350</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>351</v>
+      </c>
+      <c r="J43" t="s">
+        <v>352</v>
+      </c>
+      <c r="K43" t="s">
+        <v>353</v>
+      </c>
+      <c r="L43" t="s">
+        <v>354</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>303</v>
+      </c>
+      <c r="O43" t="s">
+        <v>89</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>355</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>356</v>
+      </c>
+      <c r="J44" t="s">
+        <v>357</v>
+      </c>
+      <c r="K44" t="s">
+        <v>358</v>
+      </c>
+      <c r="L44" t="s">
+        <v>359</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>360</v>
+      </c>
+      <c r="O44" t="s">
+        <v>79</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>361</v>
+      </c>
+      <c r="X44" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>364</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>365</v>
+      </c>
+      <c r="J45" t="s">
+        <v>366</v>
+      </c>
+      <c r="K45" t="s">
+        <v>367</v>
+      </c>
+      <c r="L45" t="s">
+        <v>368</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>360</v>
+      </c>
+      <c r="O45" t="s">
+        <v>282</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>369</v>
+      </c>
+      <c r="X45" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>372</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>373</v>
+      </c>
+      <c r="J46" t="s">
+        <v>374</v>
+      </c>
+      <c r="K46" t="s">
+        <v>375</v>
+      </c>
+      <c r="L46" t="s">
+        <v>376</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>360</v>
+      </c>
+      <c r="O46" t="s">
+        <v>61</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>361</v>
+      </c>
+      <c r="X46" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>378</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>379</v>
+      </c>
+      <c r="J47" t="s">
+        <v>380</v>
+      </c>
+      <c r="K47" t="s">
+        <v>381</v>
+      </c>
+      <c r="L47" t="s">
+        <v>382</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>383</v>
+      </c>
+      <c r="O47" t="s">
+        <v>61</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>384</v>
+      </c>
+      <c r="X47" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>387</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>388</v>
+      </c>
+      <c r="J48" t="s">
+        <v>389</v>
+      </c>
+      <c r="K48" t="s">
+        <v>390</v>
+      </c>
+      <c r="L48" t="s">
+        <v>391</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>383</v>
+      </c>
+      <c r="O48" t="s">
+        <v>61</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>361</v>
+      </c>
+      <c r="X48" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>393</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>394</v>
+      </c>
+      <c r="J49" t="s">
+        <v>395</v>
+      </c>
+      <c r="K49" t="s">
+        <v>396</v>
+      </c>
+      <c r="L49" t="s">
+        <v>397</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>383</v>
+      </c>
+      <c r="O49" t="s">
+        <v>282</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>361</v>
+      </c>
+      <c r="X49" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>399</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>400</v>
+      </c>
+      <c r="J50" t="s">
+        <v>401</v>
+      </c>
+      <c r="K50" t="s">
+        <v>402</v>
+      </c>
+      <c r="L50" t="s">
+        <v>403</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>404</v>
+      </c>
+      <c r="O50" t="s">
+        <v>89</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>361</v>
+      </c>
+      <c r="X50" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>406</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>407</v>
+      </c>
+      <c r="J51" t="s">
+        <v>408</v>
+      </c>
+      <c r="K51" t="s">
+        <v>409</v>
+      </c>
+      <c r="L51" t="s">
+        <v>410</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>404</v>
+      </c>
+      <c r="O51" t="s">
+        <v>282</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>361</v>
+      </c>
+      <c r="X51" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>412</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>413</v>
+      </c>
+      <c r="J52" t="s">
+        <v>414</v>
+      </c>
+      <c r="K52" t="s">
+        <v>415</v>
+      </c>
+      <c r="L52" t="s">
+        <v>416</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>404</v>
+      </c>
+      <c r="O52" t="s">
+        <v>52</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>361</v>
+      </c>
+      <c r="X52" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>418</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>419</v>
+      </c>
+      <c r="J53" t="s">
+        <v>420</v>
+      </c>
+      <c r="K53" t="s">
+        <v>421</v>
+      </c>
+      <c r="L53" t="s">
+        <v>422</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>423</v>
+      </c>
+      <c r="O53" t="s">
+        <v>61</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>361</v>
+      </c>
+      <c r="X53" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>425</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>426</v>
+      </c>
+      <c r="J54" t="s">
+        <v>427</v>
+      </c>
+      <c r="K54" t="s">
+        <v>12</v>
+      </c>
+      <c r="L54" t="s">
+        <v>428</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>423</v>
+      </c>
+      <c r="O54" t="s">
+        <v>89</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>361</v>
+      </c>
+      <c r="X54" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>430</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>431</v>
+      </c>
+      <c r="J55" t="s">
+        <v>432</v>
+      </c>
+      <c r="K55" t="s">
+        <v>433</v>
+      </c>
+      <c r="L55" t="s">
+        <v>434</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>435</v>
+      </c>
+      <c r="O55" t="s">
+        <v>282</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>361</v>
+      </c>
+      <c r="X55" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>437</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>438</v>
+      </c>
+      <c r="J56" t="s">
+        <v>439</v>
+      </c>
+      <c r="K56" t="s">
+        <v>440</v>
+      </c>
+      <c r="L56" t="s">
+        <v>441</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>442</v>
+      </c>
+      <c r="O56" t="s">
+        <v>61</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>361</v>
+      </c>
+      <c r="X56" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>444</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>445</v>
+      </c>
+      <c r="J57" t="s">
+        <v>446</v>
+      </c>
+      <c r="K57" t="s">
+        <v>447</v>
+      </c>
+      <c r="L57" t="s">
+        <v>448</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>442</v>
+      </c>
+      <c r="O57" t="s">
+        <v>61</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>361</v>
+      </c>
+      <c r="X57" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>450</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>451</v>
+      </c>
+      <c r="J58" t="s">
+        <v>452</v>
+      </c>
+      <c r="K58" t="s">
+        <v>453</v>
+      </c>
+      <c r="L58" t="s">
+        <v>454</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>455</v>
+      </c>
+      <c r="O58" t="s">
+        <v>61</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>361</v>
+      </c>
+      <c r="X58" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_257.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_257.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="692">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,102 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/09/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r609054776-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>10758755</t>
+  </si>
+  <si>
+    <t>609054776</t>
+  </si>
+  <si>
+    <t>08/21/2018</t>
+  </si>
+  <si>
+    <t>Not coming back.</t>
+  </si>
+  <si>
+    <t>The bathrooms have barn doors used to Roth close the closet or the bathroom. It doesn't really close. Think twice unless you want everyone in the room seeing/ hearing your business. Breakfast ok, but they run out quick .MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Juli A, General Manager at Hampton Inn &amp; Suites Houston I-10 West Park Row, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>The bathrooms have barn doors used to Roth close the closet or the bathroom. It doesn't really close. Think twice unless you want everyone in the room seeing/ hearing your business. Breakfast ok, but they run out quick .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r596528196-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>596528196</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t>Nicely appointed rooms, quiet, great for business or couples</t>
+  </si>
+  <si>
+    <t>I stayed here for 3 nights in July.  I was in room 206.  It was a very nicely appointed and laid out room.  I liked the big desk and comfortable chair.  The King bed was very comfortable.  The bathroom was nice, all drains worked well, and was clean.  My room was clean as well.The breakfast was standard for this class of hotel.  Coffee was particularly good if you like the dark roast.  The breakfast area was good for eating and as a meeting area later in the day with power along the center high-top long table.Overall I was very pleased with the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Juli A, General Manager at Hampton Inn &amp; Suites Houston I-10 West Park Row, responded to this reviewResponded July 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2018</t>
+  </si>
+  <si>
+    <t>I stayed here for 3 nights in July.  I was in room 206.  It was a very nicely appointed and laid out room.  I liked the big desk and comfortable chair.  The King bed was very comfortable.  The bathroom was nice, all drains worked well, and was clean.  My room was clean as well.The breakfast was standard for this class of hotel.  Coffee was particularly good if you like the dark roast.  The breakfast area was good for eating and as a meeting area later in the day with power along the center high-top long table.Overall I was very pleased with the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r601458231-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>601458231</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t>Not bad, but not much better than that</t>
+  </si>
+  <si>
+    <t>The hotel itself is nice - very inviting lobby with several places to congregate, nice pool, convenient location.  However the service was just lacking.  Not many smiles or greetings from front desk.  The breakfast was limited, even by "free breakfast" standards.  Our room was okay - not necessarily small but the use of space made it feel crowded.  There were probably 6" between one of the queen beds and the AC unit.  I slept on that bed and froze while my son, on the other bed, was too warm.  There was just a lot of big furniture in the room.  Even the carpet was a little off (see pic)!Housekeeping was definitely lacking.  We had no ice bucket in the room.  There was a dirty towel left draped over the ironing board in the closet when we arrived.  There were several spots on walls and light plates throughout but especially in the bathroom and entrance - blood, make up, dirt...not sure what but yuck.  The AC unit had not been wiped/dusted in a while which was mostly bothersome due to its closeness to the bed.  Just one of those experiences that feels a little off.MoreShow less</t>
+  </si>
+  <si>
+    <t>Anthony B, Front Office Manager at Hampton Inn &amp; Suites Houston I-10 West Park Row, responded to this reviewResponded August 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2018</t>
+  </si>
+  <si>
+    <t>The hotel itself is nice - very inviting lobby with several places to congregate, nice pool, convenient location.  However the service was just lacking.  Not many smiles or greetings from front desk.  The breakfast was limited, even by "free breakfast" standards.  Our room was okay - not necessarily small but the use of space made it feel crowded.  There were probably 6" between one of the queen beds and the AC unit.  I slept on that bed and froze while my son, on the other bed, was too warm.  There was just a lot of big furniture in the room.  Even the carpet was a little off (see pic)!Housekeeping was definitely lacking.  We had no ice bucket in the room.  There was a dirty towel left draped over the ironing board in the closet when we arrived.  There were several spots on walls and light plates throughout but especially in the bathroom and entrance - blood, make up, dirt...not sure what but yuck.  The AC unit had not been wiped/dusted in a while which was mostly bothersome due to its closeness to the bed.  Just one of those experiences that feels a little off.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r598499498-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>10758755</t>
-  </si>
-  <si>
     <t>598499498</t>
   </si>
   <si>
@@ -171,16 +255,13 @@
     <t>I was in Houston for Dr appointment and have stayed in several different hotels but this is where I'll be staying from now on. Hotel is very nice and the beds are comfortable. We didn't wake up in time for breakfast but look forward to trying it next time.MoreShow less</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>Juli A, General Manager at Hampton Inn &amp; Suites Houston I-10 West Park Row, responded to this reviewResponded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 2 weeks ago</t>
+    <t>Juli A, General Manager at Hampton Inn &amp; Suites Houston I-10 West Park Row, responded to this reviewResponded July 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2018</t>
   </si>
   <si>
     <t>I was in Houston for Dr appointment and have stayed in several different hotels but this is where I'll be staying from now on. Hotel is very nice and the beds are comfortable. We didn't wake up in time for breakfast but look forward to trying it next time.More</t>
@@ -192,24 +273,12 @@
     <t>596519290</t>
   </si>
   <si>
-    <t>07/15/2018</t>
-  </si>
-  <si>
     <t>Classes in Houston.</t>
   </si>
   <si>
     <t>A very safe and comfortable place to stay. Clean rooms, nice property with helpful and friendly staff. There are plenty of places to choose from to eat at as well. I wouldn't pass this place up if I were staying in the area. MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Juli A, General Manager at Hampton Inn &amp; Suites Houston I-10 West Park Row, responded to this reviewResponded 3 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 3 weeks ago</t>
-  </si>
-  <si>
     <t>A very safe and comfortable place to stay. Clean rooms, nice property with helpful and friendly staff. There are plenty of places to choose from to eat at as well. I wouldn't pass this place up if I were staying in the area. More</t>
   </si>
   <si>
@@ -237,6 +306,57 @@
     <t>this place was clean the people there was friendly and kind  I really enjoyed my stayed there I would stayed there anytime I visit Houston  my daughter recommended it and I did not regret it at all. the staff there was really nice, I missed my flight and they were really helpful to booked me and my daughter on the next flight out. I recommend it to any one travelling to Houston next time.   More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r586053592-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>586053592</t>
+  </si>
+  <si>
+    <t>06/08/2018</t>
+  </si>
+  <si>
+    <t>Excellent customer service</t>
+  </si>
+  <si>
+    <t>I absolutely loved my stay at this location and will surely return because of the awesome customer service and the comfort of a nice bed. One thing I wasn’t to impressed by was the complimentary breakfast hopefully it will get reamped in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Juli A, General Manager at Hampton Inn &amp; Suites Houston I-10 West Park Row, responded to this reviewResponded June 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2018</t>
+  </si>
+  <si>
+    <t>I absolutely loved my stay at this location and will surely return because of the awesome customer service and the comfort of a nice bed. One thing I wasn’t to impressed by was the complimentary breakfast hopefully it will get reamped in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r585689410-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>585689410</t>
+  </si>
+  <si>
+    <t>06/07/2018</t>
+  </si>
+  <si>
+    <t>Houston Business trip</t>
+  </si>
+  <si>
+    <t>I travel at least 2 ~ 3 weeks per monthAnd I couldn't ask for more with this hotel staffs and Managers,Out of all my business travelling this hotel'a experience was the best of the best.I will 200 ~ 300 % guarantee all travellers for any reason to recommend this hotel.I'm a Hilton Diamond member and I really do travel alot.Trust me and give it a try wBest staffs with best prices...Thank you all and God bless allMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>I travel at least 2 ~ 3 weeks per monthAnd I couldn't ask for more with this hotel staffs and Managers,Out of all my business travelling this hotel'a experience was the best of the best.I will 200 ~ 300 % guarantee all travellers for any reason to recommend this hotel.I'm a Hilton Diamond member and I really do travel alot.Trust me and give it a try wBest staffs with best prices...Thank you all and God bless allMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r585160078-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
@@ -252,18 +372,6 @@
     <t>Great location! Fairly new hotel with great customer service. The rooms were nice and clean. The only issue I had was my king size bed looked like a queen. The complimentary breakfast was good. I regret not utilizing the pool area. I will be returning.MoreShow less</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Juli A, General Manager at Hampton Inn &amp; Suites Houston I-10 West Park Row, responded to this reviewResponded June 11, 2018</t>
-  </si>
-  <si>
-    <t>Responded June 11, 2018</t>
-  </si>
-  <si>
     <t>Great location! Fairly new hotel with great customer service. The rooms were nice and clean. The only issue I had was my king size bed looked like a queen. The complimentary breakfast was good. I regret not utilizing the pool area. I will be returning.More</t>
   </si>
   <si>
@@ -282,12 +390,6 @@
     <t>We stayed with Hampton almost on every trip. Service and product is very consistent. The staff is friendly, the value is excellent and we know what we are giving. Highly recommended if you’re looking for the same quality of experience each time you visit.MoreShow less</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>We stayed with Hampton almost on every trip. Service and product is very consistent. The staff is friendly, the value is excellent and we know what we are giving. Highly recommended if you’re looking for the same quality of experience each time you visit.More</t>
   </si>
   <si>
@@ -315,6 +417,48 @@
     <t>Apparently we Came during a softball tournament in the area and the hotel was overrun by kids playing softball in the parking lot near the cars! And parents tailgating in the parking lot blocking parking stalls and access into and out of the property on one side. Management did nothing about this and allowed them to take the property completely over. I just hope no ones car was damaged! Breakfast left a lot to be desired. We chose this property partly because of the included breakfast but were forced to eat out because of the low quality. The bed was also oddly squeaky. We would not stay at this property again. Hilton can certainly do much better than this, it was not what we expected. It was not terrible, but it was also not very good. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r581438869-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>581438869</t>
+  </si>
+  <si>
+    <t>05/20/2018</t>
+  </si>
+  <si>
+    <t>$50 hold</t>
+  </si>
+  <si>
+    <t>This was a really nice hotel, great location, nice rooms, beautiful bathrooms and good breakfast. HOWEVER, I visited on May 13th, they placed a $50 hold just in case they were any incidents. They told me it would be 3-5 business days, and I would receive my $50 back, well I’m still waiting, this is so inconvenient because I wasn’t aware of the charge when I booked the room and now I’m still waiting on my money, I will not stay here again, it’s been 5 business days. They took the $50 with no problem, the day I checked in so I don’t understand why it takes so long to put it back !!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Javier F, Manager at Hampton Inn &amp; Suites Houston I-10 West Park Row, responded to this reviewResponded May 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2018</t>
+  </si>
+  <si>
+    <t>This was a really nice hotel, great location, nice rooms, beautiful bathrooms and good breakfast. HOWEVER, I visited on May 13th, they placed a $50 hold just in case they were any incidents. They told me it would be 3-5 business days, and I would receive my $50 back, well I’m still waiting, this is so inconvenient because I wasn’t aware of the charge when I booked the room and now I’m still waiting on my money, I will not stay here again, it’s been 5 business days. They took the $50 with no problem, the day I checked in so I don’t understand why it takes so long to put it back !!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r575929712-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>575929712</t>
+  </si>
+  <si>
+    <t>04/26/2018</t>
+  </si>
+  <si>
+    <t>I stay at this Hampton Inn every few weeks; it’s in a great location, very convenient to I-10. The hotel is new, well-kept; staff is very helpful and friendly. I would highly recommend it as a great place to stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>I stay at this Hampton Inn every few weeks; it’s in a great location, very convenient to I-10. The hotel is new, well-kept; staff is very helpful and friendly. I would highly recommend it as a great place to stay. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r573575104-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
@@ -330,9 +474,6 @@
     <t>Breakfast food is cheap and cheaply prepared. Community oatmeal pot is discusting a probably violates health codes. Computer in business center would not open common files .png etc. Noise from ambulances going to nearby hospitals will wake you, but that is something the hotel cannot control.MoreShow less</t>
   </si>
   <si>
-    <t>April 2018</t>
-  </si>
-  <si>
     <t>Javier F, Manager at Hampton Inn &amp; Suites Houston I-10 West Park Row, responded to this reviewResponded April 16, 2018</t>
   </si>
   <si>
@@ -384,6 +525,51 @@
     <t>We stayed 4 times at this hotel in Feb. and March of 2018.  It is one of the better values in the lower-to-mid price range in the West Houston / Katy area.  A different egg dish was served at breakfast every day and the quality of the breakfast was good.  Coffee and tea were available in the lobby throughout the day and into the evenings at no extra charge. There was security in the parking lot late at night.  A commercial-grade washer and dryer were available and cost only $ 1 each.  There were 2 elevators instead of only 1.  The staff tried hard to be helpful and cheerful most of the time.  Housekeeping was good but not excellent. Our room was missed one day and the bathtub could have been more clean at check-in on another stay. Otherwise, the hotel was clean throughout.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r566381299-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566381299</t>
+  </si>
+  <si>
+    <t>03/13/2018</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>This hotel was very clean and the room were as well. It was nice entering and not adjusting the temp. The staff went above and beyond to make us feel welcome with a smile. The breakfast waffles were amazing!!  MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Javier F, Manager at Hampton Inn &amp; Suites Houston I-10 West Park Row, responded to this reviewResponded March 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2018</t>
+  </si>
+  <si>
+    <t>This hotel was very clean and the room were as well. It was nice entering and not adjusting the temp. The staff went above and beyond to make us feel welcome with a smile. The breakfast waffles were amazing!!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r566355710-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566355710</t>
+  </si>
+  <si>
+    <t>Very nice Hotel</t>
+  </si>
+  <si>
+    <t>Extremely clean room and professional staff. The hotel is right of the freeway and several good places to eat nearby. I also highly recommending THE LAIHK HOUSE less than a mile from the hotel. Excellent gourmet coffees and food. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Extremely clean room and professional staff. The hotel is right of the freeway and several good places to eat nearby. I also highly recommending THE LAIHK HOUSE less than a mile from the hotel. Excellent gourmet coffees and food. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r566072951-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
@@ -399,15 +585,6 @@
     <t>Excellent value for money, even though it was was about 20 minutes from the office I was visiting, it was priced just about right.  Room was comfortable and complimentary breakfast was okay.  Practically new hotel from what I could see.MoreShow less</t>
   </si>
   <si>
-    <t>March 2018</t>
-  </si>
-  <si>
-    <t>Javier F, Manager at Hampton Inn &amp; Suites Houston I-10 West Park Row, responded to this reviewResponded March 20, 2018</t>
-  </si>
-  <si>
-    <t>Responded March 20, 2018</t>
-  </si>
-  <si>
     <t>Excellent value for money, even though it was was about 20 minutes from the office I was visiting, it was priced just about right.  Room was comfortable and complimentary breakfast was okay.  Practically new hotel from what I could see.More</t>
   </si>
   <si>
@@ -444,6 +621,42 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r558702418-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>558702418</t>
+  </si>
+  <si>
+    <t>02/05/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel Experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My bother and I were in Houston for chemo treatment at MD Anderson. We were't expecting to stay overnight, but we were happy to learn how easy it was to reserve a hotel when so many others were full. Everything was nice. The room was comfortable and welcoming and the staff were very polite and helpful. We plan to use this hotel again for subsequent trips. </t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r558372101-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>558372101</t>
+  </si>
+  <si>
+    <t>02/04/2018</t>
+  </si>
+  <si>
+    <t>Shout out to Muhammad!</t>
+  </si>
+  <si>
+    <t>Excellent welcoming staff, asked about where we're coming from and about our drive. He gave us two compliementary water bottles although we were silver, he told us politely that silver's do not qualify, but we wanna make sure you're completely satisfied. What a sweet little young man! :-)The housekeeping staff was nice too, so as the breakfast chef. Awesomw hotel, awesome employees.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r557589993-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
@@ -459,9 +672,6 @@
     <t>We have stayed here several times over the past year, most recently due to post-flood work being done in our home. Good facility, close to where we needed to be, at a good price. We will likely be back in the future.MoreShow less</t>
   </si>
   <si>
-    <t>January 2018</t>
-  </si>
-  <si>
     <t>Javier F, Manager at Hampton Inn &amp; Suites Houston I-10 West Park Row, responded to this reviewResponded February 1, 2018</t>
   </si>
   <si>
@@ -507,6 +717,36 @@
     <t>A lovely hotel... only a couple of years old.  Wonderful breakfast.  Nice outdoor pool.  Convenient laundry facilities on site.  Comfortable beds.  Great location.  Close to I-10. Many dining establishments nearby.  Hotel personnel were fantastic.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r555615436-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>555615436</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Winter Ice Storm</t>
+  </si>
+  <si>
+    <t>Staff was extraordinarily accommodating during a winter blast of ice that forced a change of plans. Well done, staff! The new facility was very nice and I look forward to seeing the shops that open across the street from the hotel. It will be nice to have something within walking distance other than the hospital.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r554590927-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>554590927</t>
+  </si>
+  <si>
+    <t>01/18/2018</t>
+  </si>
+  <si>
+    <t>Great staff, perfectly clean hotel</t>
+  </si>
+  <si>
+    <t>The staff at this hotel was perfectly accommodating and helpful. I was a late arrival, but they were easy to work with and checking in was instant. The room was completely clean (along with the bathroom and lobby space), which was a huge plus for me.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r554458363-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
@@ -573,6 +813,39 @@
     <t>The positives were over the top and hit my key criteria for a hotel stay.- Sparkling clean- Extremely quiet, rooms have hydraulic closing mechanism to prevent slamming!- Reliable internet- And add great location and price/valueBut, several demerits cause me to give a  3.5 out of 5. Here's why:- Expect a cold shower after 6:30 a.m.- Cold water in hot water urn in lobby throughout stay.- Business center printer did not function.- Even on the top floor, heavy walkers were audible.- Piercing fire alarm activated twice, once at midnight resulting in a sleepless night - a noise I will never forget.Woud I stay here again? Maybe, but would seek suitable alternatives if availableMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r546754240-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>546754240</t>
+  </si>
+  <si>
+    <t>12/11/2017</t>
+  </si>
+  <si>
+    <t>Amazing Business Meeting Center and Hotel Staff.</t>
+  </si>
+  <si>
+    <t>We were directed to the Hampton Inn and Suites because the meeting room we wanted at another property was booked.  The sales person at the Hampton went out of her way to take care of us, discounting our private rooms and checking on us daily.  The breakfast is phenomenal and we will definitely be staying here in the future.  Very beautiful property.  Well kept and very clean.  The staff was so friendly.  From the sales staff, front desk staff, janitorial staff and kitchen staff, we were more than pleased.  SO IMPRESSED.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were directed to the Hampton Inn and Suites because the meeting room we wanted at another property was booked.  The sales person at the Hampton went out of her way to take care of us, discounting our private rooms and checking on us daily.  The breakfast is phenomenal and we will definitely be staying here in the future.  Very beautiful property.  Well kept and very clean.  The staff was so friendly.  From the sales staff, front desk staff, janitorial staff and kitchen staff, we were more than pleased.  SO IMPRESSED.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r546752393-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>546752393</t>
+  </si>
+  <si>
+    <t>Great Experience at Hampton Inn</t>
+  </si>
+  <si>
+    <t>Chose this hotel because it was close to a company I was visiting.  Was a little concerned because it only showed 2 stars out of 5.  However, I found the hotel to be perfectly fine.  No problems with my reservation, front desk gave me a business discount, and the breakfast was outstanding.  Only downside was not a lot of restaurants nearby, but there is a Popeye's that is close, which was fine for me, but maybe not for everyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chose this hotel because it was close to a company I was visiting.  Was a little concerned because it only showed 2 stars out of 5.  However, I found the hotel to be perfectly fine.  No problems with my reservation, front desk gave me a business discount, and the breakfast was outstanding.  Only downside was not a lot of restaurants nearby, but there is a Popeye's that is close, which was fine for me, but maybe not for everyone.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r544895594-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
@@ -639,6 +912,42 @@
     <t>This is a brand new hotel off I-10.  It worked very well for my stay while working in this area.I wasn't here very long, so can't comment on much.  But the bed was comfy.The only issue I noticed &amp; I brought it to the attention of management was that the room had obviously not been vacuumed near the beds as I found trash on the floor.  They immediately corrected the situation and apologized.I will be back when working again in the area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r542542441-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>542542441</t>
+  </si>
+  <si>
+    <t>11/21/2017</t>
+  </si>
+  <si>
+    <t>Quick Stop</t>
+  </si>
+  <si>
+    <t>We arrived late and were only there for about 12 hours. The place was very clean and the breakfast was great. We do not stay in hotels very often but we would definitely stay in this Hampton Inn again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We arrived late and were only there for about 12 hours. The place was very clean and the breakfast was great. We do not stay in hotels very often but we would definitely stay in this Hampton Inn again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r542360483-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>542360483</t>
+  </si>
+  <si>
+    <t>11/20/2017</t>
+  </si>
+  <si>
+    <t>Clean, Good Parking, Friendly Service</t>
+  </si>
+  <si>
+    <t>With most new hotels they seem nice but decline over time.  I have sensed no drop off since this place opened a short time ago and I hope they keep it up.  Very Clean, the parking is ample, the access to main roads good, plenty of food in surrounding area.  GPS is a little weird around the hospital but overall one of my favorite hamptons.MoreShow less</t>
+  </si>
+  <si>
+    <t>With most new hotels they seem nice but decline over time.  I have sensed no drop off since this place opened a short time ago and I hope they keep it up.  Very Clean, the parking is ample, the access to main roads good, plenty of food in surrounding area.  GPS is a little weird around the hospital but overall one of my favorite hamptons.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r542121454-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
@@ -711,15 +1020,48 @@
     <t>The only issue is my gos has it on the other side of the main road and it is behind another building of the same height. Would be nice to have water in the room that was cold for you when using digital keyMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r540115480-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>540115480</t>
+  </si>
+  <si>
+    <t>11/10/2017</t>
+  </si>
+  <si>
+    <t>Finding the right spot to sleep</t>
+  </si>
+  <si>
+    <t>Great Staff and wonderful location to travel! This hotel was in the right spot and I had no issues with the staff. It was indeed quiet and completed the evening. Consider using this hotel for all your staying needs for future travel, even if it’s for business and personal.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great Staff and wonderful location to travel! This hotel was in the right spot and I had no issues with the staff. It was indeed quiet and completed the evening. Consider using this hotel for all your staying needs for future travel, even if it’s for business and personal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r539767427-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>539767427</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>A great experience!</t>
+  </si>
+  <si>
+    <t>Stayed one night during recent business trip to Houston.  Beds-awesome! Sheets-awesome! Breakfast-awesome! Staff-awesome!  Very nice stay all around and felt safe.I inadvertently left behind a nice shirt hanging in the closet.  Ugh! I called first time during the overnight shift and no luck ... felt irritated to think it could not be found.  I called one more time during the day shift and spoke with Cindy.  She took all my information and promised to call me back.  I honestly was not holding out much hope ... but Cindy restored my faith when she not only called me back, but told me "where do we mail it?"  I was giddy to know I would get one of my favorite shirts back, but most importantly it was a breath of fresh air to receive first-rate customer service and a favorable outcome.  Thank you to the hotel housekeeping staff and Cindy.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed one night during recent business trip to Houston.  Beds-awesome! Sheets-awesome! Breakfast-awesome! Staff-awesome!  Very nice stay all around and felt safe.I inadvertently left behind a nice shirt hanging in the closet.  Ugh! I called first time during the overnight shift and no luck ... felt irritated to think it could not be found.  I called one more time during the day shift and spoke with Cindy.  She took all my information and promised to call me back.  I honestly was not holding out much hope ... but Cindy restored my faith when she not only called me back, but told me "where do we mail it?"  I was giddy to know I would get one of my favorite shirts back, but most importantly it was a breath of fresh air to receive first-rate customer service and a favorable outcome.  Thank you to the hotel housekeeping staff and Cindy.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r539883340-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
     <t>539883340</t>
   </si>
   <si>
-    <t>11/09/2017</t>
-  </si>
-  <si>
     <t>Loud AC Noise</t>
   </si>
   <si>
@@ -774,15 +1116,60 @@
     <t>The only thing that I did not like was that by 7am the breakfast was gone. I asked for Oatmeal and the staff member did not understand me. When I asked if there were going to bring more out and even though she said yes, it never came out.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r537761569-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>537761569</t>
+  </si>
+  <si>
+    <t>11/01/2017</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t>Very very pleased with my stay here. So happy all around. Great service. Clean. Affordable. Perfect for me and my children. Would definitely come again and would recommend this hotel to anyone else staying in the area. They even thanked me for my husbands service in the military! Most people don’t even acknowledge our service. Very pleased. MoreShow less</t>
+  </si>
+  <si>
+    <t>Javier F, General Manager at Hampton Inn &amp; Suites Houston I-10 West Park Row, responded to this reviewResponded November 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2017</t>
+  </si>
+  <si>
+    <t>Very very pleased with my stay here. So happy all around. Great service. Clean. Affordable. Perfect for me and my children. Would definitely come again and would recommend this hotel to anyone else staying in the area. They even thanked me for my husbands service in the military! Most people don’t even acknowledge our service. Very pleased. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r536973836-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>536973836</t>
+  </si>
+  <si>
+    <t>10/29/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>We had a king size room. It was very roomy and comfortable. Would definitely stay again. There is a sleeper sofa, a large desk area for people who need to use their computer for business. The bathroom was very nice. It also had a separate bar area with coffee maker and coffee, small refrigerator, and microwave. Lots of storage for someone who has a need for an extended stay. It appears to be a newer hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>Javier F, General Manager at Hampton Inn &amp; Suites Houston I-10 West Park Row, responded to this reviewResponded October 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2017</t>
+  </si>
+  <si>
+    <t>We had a king size room. It was very roomy and comfortable. Would definitely stay again. There is a sleeper sofa, a large desk area for people who need to use their computer for business. The bathroom was very nice. It also had a separate bar area with coffee maker and coffee, small refrigerator, and microwave. Lots of storage for someone who has a need for an extended stay. It appears to be a newer hotel. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r536930052-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
     <t>536930052</t>
   </si>
   <si>
-    <t>10/29/2017</t>
-  </si>
-  <si>
     <t xml:space="preserve">Just stopping by </t>
   </si>
   <si>
@@ -792,9 +1179,6 @@
     <t>Javier F, Front Office Manager at Hampton Inn &amp; Suites Houston I-10 West Park Row, responded to this reviewResponded October 30, 2017</t>
   </si>
   <si>
-    <t>Responded October 30, 2017</t>
-  </si>
-  <si>
     <t>Very nice place to stay, clean, comfortable, and a close by location to move around the city area without all the hassle of the big city. Great atmosphere and all that is needed for a night stay. Now, although the check out time is at noon, the cleaning crew were knocking on my door at 9:00am...yes I forgot to hang the "Do Not Disturb" sign on the door. But having to take my wife to the emergency room and coming back from the emergency room at 2:30am; you would forget everything. I felt like "Really!...are you kidding me?". I complained at the front desk when I checked out, but the clerk didn't acknowledge the situation. I left the hotel very unhappy. My question is...isn't the cleaning staff aware of who's staying or leaving prior to anything? Other than that...what else can I say. I would not either recommend or not recommend this hotel because each individual has there own situational experiences. Would I stay in this hotel again? Maybe...maybe not, all depends on my current situation. More</t>
   </si>
   <si>
@@ -813,9 +1197,6 @@
     <t>This is a new hotel. Very clean and modern. Conveniently located to restaurants and outdoor activities in West Houston. Enjoyed the pool and hot breakfast. A great night's sleep. Will return next year!!MoreShow less</t>
   </si>
   <si>
-    <t>Javier F, General Manager at Hampton Inn &amp; Suites Houston I-10 West Park Row, responded to this reviewResponded October 30, 2017</t>
-  </si>
-  <si>
     <t>This is a new hotel. Very clean and modern. Conveniently located to restaurants and outdoor activities in West Houston. Enjoyed the pool and hot breakfast. A great night's sleep. Will return next year!!More</t>
   </si>
   <si>
@@ -846,6 +1227,45 @@
     <t>I must say this hotel is one of the nicest Hampton Inn's I have stayed at. Very very clean and very good customer service. The pool is hidden from the street area and the waterfalls were marvelous. I was a little disappointed that the digital key for the back gate did not work. Nor did the manual keys. I had bags to unload and had to wait for the front desk clerk to come out and open. I'm sure it was just a kink  or a low battery as the digital system is fairly new. I believe I even saw a houseman. Great experience. I come bi-weekly and usually stay at the Embassy. You guys are very close in service and cleanliness!  I think this will be my new home away from home. awesome job Hampton team.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r519713553-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>519713553</t>
+  </si>
+  <si>
+    <t>08/30/2017</t>
+  </si>
+  <si>
+    <t>Hurricane Harvey</t>
+  </si>
+  <si>
+    <t>Would like to thank the management for their kindness, flexibility, and hospitality during Hurricane Harvey.  You provided comfort and respite for many who worked day/night during the storm/flooding.  We truly appreciate your willingness to help those who were helping others!  MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Would like to thank the management for their kindness, flexibility, and hospitality during Hurricane Harvey.  You provided comfort and respite for many who worked day/night during the storm/flooding.  We truly appreciate your willingness to help those who were helping others!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r513877734-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>513877734</t>
+  </si>
+  <si>
+    <t>08/16/2017</t>
+  </si>
+  <si>
+    <t>Great hotel!!!  Very friendly and professional team!</t>
+  </si>
+  <si>
+    <t>This hotel is the best in the energy corridor. I work there a few times each month and will stay there from here on out. The staff is so friendly, professional, and helpful. Hotel is spotless clean too. Workout room and the breakfast are on point as well!  So glad I found this place. MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is the best in the energy corridor. I work there a few times each month and will stay there from here on out. The staff is so friendly, professional, and helpful. Hotel is spotless clean too. Workout room and the breakfast are on point as well!  So glad I found this place. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r512701639-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
@@ -861,12 +1281,6 @@
     <t>I had a great stay at this location. The rooms are very nice and clean. Cindy was exceptional throughout the check-in process. She followed up to make sure everything was okay and this was very much appreciated. Excellent Customer Service!!!  I will return!!!</t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r504342687-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
@@ -912,6 +1326,42 @@
     <t>If there was a lower rating this hotel would receive it.  Hair on bedding, towels, in the shower and on the toilets.  Urine on the toilet.  Dirty microwave and floor. Stain (which look like blood) on the comforter.  I saw about six rooms before settling for a less filthy room. I had been on the road for seven hours driving and both me and my young son was exhausted and we had to go to every floor checking different rooms that the front desk clerk had switched us to.  It was exhausting and very frustrating for the hotel to be so dirty.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r501068830-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>501068830</t>
+  </si>
+  <si>
+    <t>07/11/2017</t>
+  </si>
+  <si>
+    <t>just ok</t>
+  </si>
+  <si>
+    <t>ok place to stay for short trips like 1-2 days but i have seen better. some of the amenities didnt work properly and could have done without the breakfast..it wasnt that good. i love hilton properties and normally stay at embassy, hilton, doubletree, or garden inn...not a fan of this property..just ok.MoreShow less</t>
+  </si>
+  <si>
+    <t>ok place to stay for short trips like 1-2 days but i have seen better. some of the amenities didnt work properly and could have done without the breakfast..it wasnt that good. i love hilton properties and normally stay at embassy, hilton, doubletree, or garden inn...not a fan of this property..just ok.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r498881725-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>498881725</t>
+  </si>
+  <si>
+    <t>07/05/2017</t>
+  </si>
+  <si>
+    <t>Very welcoming and friendly</t>
+  </si>
+  <si>
+    <t>My kids, parents and I all stayed at this hotel and we all enjoyed staying here! My parents who plan on coming back to katy will definitely be using this hotel. The area is nice and the staff is extremely friendly! The breakfast was amazing and offered a variety of choices. MoreShow less</t>
+  </si>
+  <si>
+    <t>My kids, parents and I all stayed at this hotel and we all enjoyed staying here! My parents who plan on coming back to katy will definitely be using this hotel. The area is nice and the staff is extremely friendly! The breakfast was amazing and offered a variety of choices. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r492403807-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
@@ -981,6 +1431,48 @@
     <t>excellent service.  staff was very courteous (natalie, melissa, javier, maria among others) provided assistance at all times.  room was very clean. complementary breakfast and newspaper   was very good and appreciated. i would definitely recommend this hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r488293964-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>488293964</t>
+  </si>
+  <si>
+    <t>05/27/2017</t>
+  </si>
+  <si>
+    <t>Outstanding hotel</t>
+  </si>
+  <si>
+    <t>I was completely satisfied with my recent stay at this Hampton Inn. Very quiet, excellent staff and service. The location is ideal to reach Methodist Hospital, as well as easy access to Katy and Houston. I highly recommend this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>I was completely satisfied with my recent stay at this Hampton Inn. Very quiet, excellent staff and service. The location is ideal to reach Methodist Hospital, as well as easy access to Katy and Houston. I highly recommend this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r487880780-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>487880780</t>
+  </si>
+  <si>
+    <t>05/26/2017</t>
+  </si>
+  <si>
+    <t>Poor experience</t>
+  </si>
+  <si>
+    <t>My unfortunate experience with the Hampton was very disappointing. My room was next to some electrical engineering room. I could not sleep due to the noise from neighbors upstairs walking loudly. My shower had pubic hair. Recommend better maid service. MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2017</t>
+  </si>
+  <si>
+    <t>My unfortunate experience with the Hampton was very disappointing. My room was next to some electrical engineering room. I could not sleep due to the noise from neighbors upstairs walking loudly. My shower had pubic hair. Recommend better maid service. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r484541081-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
@@ -1035,6 +1527,42 @@
     <t>Nice place. I gave it 4 stars because the front desk staff was very friendly an de helpful. The room itself seems outdated and dismal.. but at least it's clean and decent. The breaksfast staff wasn't very friendly and when I asked for more milk for the coffee from a male worker there, he just grabbed the milk container and left. Not a word. Not a smile. Other than that, this hotel is not bad.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r481672750-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>481672750</t>
+  </si>
+  <si>
+    <t>05/04/2017</t>
+  </si>
+  <si>
+    <t>Weekend getaway</t>
+  </si>
+  <si>
+    <t>I stay at this hotel occasionally am am never disappointed. Clean, friendly, and professional. I would recommend this hotel to ANY and EVERYONE. They are my best resort to an in town getaway.Thumbs UpMoreShow less</t>
+  </si>
+  <si>
+    <t>I stay at this hotel occasionally am am never disappointed. Clean, friendly, and professional. I would recommend this hotel to ANY and EVERYONE. They are my best resort to an in town getaway.Thumbs UpMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r478116095-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>478116095</t>
+  </si>
+  <si>
+    <t>04/22/2017</t>
+  </si>
+  <si>
+    <t>Comfortable stay</t>
+  </si>
+  <si>
+    <t>Really enjoyed this hotel- nice facility, great staff and location. The breakfast was ok for the price- the waffle maker is always nice. loved the coffee out all day as well and the pool looked nice- wished I brought my suit. The fitness center is quite nice as well...only thing I'd like is a bugger bathtub or shower but it met my expectations for the price point. MoreShow less</t>
+  </si>
+  <si>
+    <t>Really enjoyed this hotel- nice facility, great staff and location. The breakfast was ok for the price- the waffle maker is always nice. loved the coffee out all day as well and the pool looked nice- wished I brought my suit. The fitness center is quite nice as well...only thing I'd like is a bugger bathtub or shower but it met my expectations for the price point. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r475927569-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
@@ -1083,6 +1611,48 @@
     <t xml:space="preserve">We enjoyed our stay. Great staff!  When we had a concern it was handled quickly and efficiently. The beds are so comfortable and my daughter just loves the free Wifi. We only stay in Hampton Inns or hotels within the Hampton group. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r471790853-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>471790853</t>
+  </si>
+  <si>
+    <t>03/31/2017</t>
+  </si>
+  <si>
+    <t>The New Hampton Inn in Houston</t>
+  </si>
+  <si>
+    <t>Nice, Clean, Quiet! If you ask for a room away from the elevator you will be amazed how quiet the hotel is. It is new so there are very few issues. It's tucked back off the street so it isn't packed full of guests yet.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r469164541-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>469164541</t>
+  </si>
+  <si>
+    <t>03/21/2017</t>
+  </si>
+  <si>
+    <t>Brand new Hampton</t>
+  </si>
+  <si>
+    <t>This Hampton Inn is very new probably built to handle the amount of people coming in for an annual sporting championship. The area is being developed with some small shops in front of the hotel. It had the largest workout room at a Hampton I've ever seen.The only thing that prevented me from giving all 5's was that I was not recognized as a Diamond member nor offered any benefits (water and snack).MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2017</t>
+  </si>
+  <si>
+    <t>This Hampton Inn is very new probably built to handle the amount of people coming in for an annual sporting championship. The area is being developed with some small shops in front of the hotel. It had the largest workout room at a Hampton I've ever seen.The only thing that prevented me from giving all 5's was that I was not recognized as a Diamond member nor offered any benefits (water and snack).More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r468517519-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
@@ -1098,15 +1668,6 @@
     <t>We stayed in this hotel to get some rest since we were traveling from Baton Rouge to Austin. I must say I can't regret I chose this one to stay. Keys were made upon arrival (we arrived at 1.40) and DJ or JD was friendly and attentive. Breakfast next morning was up to par and expectations. Keep it up! Thank you!MoreShow less</t>
   </si>
   <si>
-    <t>March 2017</t>
-  </si>
-  <si>
-    <t>Management response:Responded March 28, 2017</t>
-  </si>
-  <si>
-    <t>Responded March 28, 2017</t>
-  </si>
-  <si>
     <t>We stayed in this hotel to get some rest since we were traveling from Baton Rouge to Austin. I must say I can't regret I chose this one to stay. Keys were made upon arrival (we arrived at 1.40) and DJ or JD was friendly and attentive. Breakfast next morning was up to par and expectations. Keep it up! Thank you!More</t>
   </si>
   <si>
@@ -1152,6 +1713,45 @@
     <t>This is a great hotel.  Brand new.  The rooms are very big and very well laid out.  I was working a lot at night during this trip and felt very comfortable doing so.  The fitness room is huge too.  Great equipment.  Breakfast was great as well.  Most of all the staff at the hotel was very friendly and helpful.  Great hotel.  I'd recommend it to anyone working in the energy corridor or traveling to Houston on the weekend.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r462615570-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462615570</t>
+  </si>
+  <si>
+    <t>02/24/2017</t>
+  </si>
+  <si>
+    <t>good experince</t>
+  </si>
+  <si>
+    <t>new hotel - near expressway-clean and modern - marginal breakfast - experience overall will merit a return stay-numerous restaurant choices near hotel. Unsecure parking so be careful with item left in plain view.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>new hotel - near expressway-clean and modern - marginal breakfast - experience overall will merit a return stay-numerous restaurant choices near hotel. Unsecure parking so be careful with item left in plain view.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r461872235-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>461872235</t>
+  </si>
+  <si>
+    <t>02/21/2017</t>
+  </si>
+  <si>
+    <t>Just average stay</t>
+  </si>
+  <si>
+    <t>Nothing too exciting about this hotel. Seemed brand new but nothing too exciting to stay there again. The checkout process was poor due to the clerk leaving their shift early. Made our check out lengthy and made us hurry to get to where we needed to get. MoreShow less</t>
+  </si>
+  <si>
+    <t>Nothing too exciting about this hotel. Seemed brand new but nothing too exciting to stay there again. The checkout process was poor due to the clerk leaving their shift early. Made our check out lengthy and made us hurry to get to where we needed to get. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r461627032-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
@@ -1167,9 +1767,6 @@
     <t>I'm always satisfied with my stay at the Hampton Inn - clean rooms, friendly staff, and a decent fitness facility/pool. I wish there were better items available on the continental breakfast line, but that's not limited to this location (Hampton Inn doesn't have top quality food, but it's no deal breaker.) I stay at this location every time I'm on the energy corridor. It's been open less than a year, and it still smells brand new. Everything is in great working order.MoreShow less</t>
   </si>
   <si>
-    <t>February 2017</t>
-  </si>
-  <si>
     <t>Management response:Responded February 21, 2017</t>
   </si>
   <si>
@@ -1215,6 +1812,42 @@
     <t>Every employee that I encountered during my stay was happy, energetic and helpful. The hotel was clean and the location was more than perfect.  My only concern was how dim the parking lot is at night. If I ever have a need to stay in this area again... This is my choice!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r459540554-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>459540554</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>wonderful hotel.</t>
+  </si>
+  <si>
+    <t>This was my best stay at a Hilton brand hotel. The staff was just super. Always greeted me by name when I left or entered the hotel. Hotel is in a good location, near restaurants, stores and right off of major highway. Very easy to get downtown Houston. The only minus I give the hotel is that its complimentary breakfast could be a little better. Choices very limited.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was my best stay at a Hilton brand hotel. The staff was just super. Always greeted me by name when I left or entered the hotel. Hotel is in a good location, near restaurants, stores and right off of major highway. Very easy to get downtown Houston. The only minus I give the hotel is that its complimentary breakfast could be a little better. Choices very limited.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r458534420-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458534420</t>
+  </si>
+  <si>
+    <t>02/10/2017</t>
+  </si>
+  <si>
+    <t>Rude staff, lack of aminities and crappy breakfast for vegetarians</t>
+  </si>
+  <si>
+    <t>They didn't have clean towels and basic stuff like shaving gel. When I requested it to staff for it they were rude and unhelpful. Additionally breakfast had scrambled egg with meat and other meat products. No consideration for vegetarian people.MoreShow less</t>
+  </si>
+  <si>
+    <t>They didn't have clean towels and basic stuff like shaving gel. When I requested it to staff for it they were rude and unhelpful. Additionally breakfast had scrambled egg with meat and other meat products. No consideration for vegetarian people.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r454575775-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
@@ -1272,6 +1905,45 @@
     <t>We had reserved a room for 3 of us to attend the I-10 shootout.  Our entire girls soccer team was also staying at the hotel.  Not only were the staff very polite and helpful to us, but also to our entire team!!  Great experience!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r448030877-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>448030877</t>
+  </si>
+  <si>
+    <t>12/31/2016</t>
+  </si>
+  <si>
+    <t>Awesome brand new hotel</t>
+  </si>
+  <si>
+    <t>This was the perfect spot for us to stay when visiting family in Katy for the holidays. Quiet location and the staff was just amazing, even on Christmas Day when they were away from their own families. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>This was the perfect spot for us to stay when visiting family in Katy for the holidays. Quiet location and the staff was just amazing, even on Christmas Day when they were away from their own families. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r446262914-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>446262914</t>
+  </si>
+  <si>
+    <t>12/23/2016</t>
+  </si>
+  <si>
+    <t>Great location!</t>
+  </si>
+  <si>
+    <t>The front desk staff was awesome, room was comfortable, clean &amp; functional.  The hotel was nice &amp; comfortable without being pretentious.  I would definitely stay there again because the location was perfect for my needs.  MoreShow less</t>
+  </si>
+  <si>
+    <t>The front desk staff was awesome, room was comfortable, clean &amp; functional.  The hotel was nice &amp; comfortable without being pretentious.  I would definitely stay there again because the location was perfect for my needs.  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r445144317-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
@@ -1287,9 +1959,6 @@
     <t>Brand new Hotel, very nice accommodations and very clean.  No Bottled Water offered as normal at other sites as a Hilton Honors member.  Breakfast had fewer options than other Hampton Inns.  No Breakfast on the go waiting at desk as I passed by.MoreShow less</t>
   </si>
   <si>
-    <t>December 2016</t>
-  </si>
-  <si>
     <t>Brand new Hotel, very nice accommodations and very clean.  No Bottled Water offered as normal at other sites as a Hilton Honors member.  Breakfast had fewer options than other Hampton Inns.  No Breakfast on the go waiting at desk as I passed by.More</t>
   </si>
   <si>
@@ -1329,6 +1998,45 @@
     <t>Stayed here as it was the closest to the Berry Center and easier access to it. I was greeted by a very friendly person at the front desk (forgot her name) she got me checked in right away and answered a couple of questions i had about the area, and she also handed me a map of restaurants in the area, which was very helpful. Room was very nice,with a 35" tv ,small fridge, King size bed, work desk, plenty of wall sockets to charge things here,alarm clock, no radio though, bathroom only has a shower,but that's ok for a night. Only two problems with the shower, door wouldn't close properly,and it was a slow drain. Not deal breakers for me. Great exercise room too. There is a pool, but already too cold for swimming. I would stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r436656976-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>436656976</t>
+  </si>
+  <si>
+    <t>11/12/2016</t>
+  </si>
+  <si>
+    <t>Good Service</t>
+  </si>
+  <si>
+    <t>Hospitality was great!  Breakfast was great. Rooms were comfortable small, but comfortable . Good location , I will definitely stay there again in Houston,  Texas.  The hotel looks great and would recommend this hotel as one of the better hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hospitality was great!  Breakfast was great. Rooms were comfortable small, but comfortable . Good location , I will definitely stay there again in Houston,  Texas.  The hotel looks great and would recommend this hotel as one of the better hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r432211920-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>432211920</t>
+  </si>
+  <si>
+    <t>10/27/2016</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>Just keep an  On the waffle maker. The cook time was set on 1 min 30 sec. One minute should be perfect. The location is just perfect. Just off the interstate but far enough  from the sound. Huge peanut shape pool in the back. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Just keep an  On the waffle maker. The cook time was set on 1 min 30 sec. One minute should be perfect. The location is just perfect. Just off the interstate but far enough  from the sound. Huge peanut shape pool in the back. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10758755-r431796662-Hampton_Inn_Suites_Houston_I_10_West_Park_Row-Houston_Texas.html</t>
   </si>
   <si>
@@ -1342,9 +2050,6 @@
   </si>
   <si>
     <t>I've stayed in Homewood Suites before and this one was okay. The staff is super nice and outgoing and helpful.  The building seems new-ish.  I wouldn't rate the cleanliness of the bathroom so high--and the shower heads are mildew-y. The hallways smell of some unknown odor. But, overall, for a quick stay, it has a small gym, small pool, small breakfast and social hour and small business room.  I was able to get everything done that I needed and a quiet night of sleep.MoreShow less</t>
-  </si>
-  <si>
-    <t>October 2016</t>
   </si>
   <si>
     <t>I've stayed in Homewood Suites before and this one was okay. The staff is super nice and outgoing and helpful.  The building seems new-ish.  I wouldn't rate the cleanliness of the bathroom so high--and the shower heads are mildew-y. The hallways smell of some unknown odor. But, overall, for a quick stay, it has a small gym, small pool, small breakfast and social hour and small business room.  I was able to get everything done that I needed and a quiet night of sleep.More</t>
@@ -1921,7 +2626,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1930,20 +2635,20 @@
         <v>52</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1995,10 +2700,10 @@
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2020,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -2042,7 +2747,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -2051,19 +2756,19 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N4" t="s"/>
       <c r="O4" t="s"/>
@@ -2077,13 +2782,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -2099,7 +2804,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -2108,33 +2813,35 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="O5" t="s">
         <v>79</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q5" t="n">
         <v>5</v>
       </c>
-      <c r="R5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
       <c r="S5" t="n">
         <v>5</v>
       </c>
@@ -2180,22 +2887,22 @@
         <v>84</v>
       </c>
       <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" t="s">
         <v>85</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>86</v>
       </c>
-      <c r="L6" t="s">
-        <v>87</v>
-      </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="O6" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -2217,13 +2924,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="X6" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
@@ -2239,62 +2946,48 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
         <v>91</v>
       </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>92</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
         <v>93</v>
       </c>
-      <c r="K7" t="s">
+      <c r="X7" t="s">
         <v>94</v>
       </c>
-      <c r="L7" t="s">
+      <c r="Y7" t="s">
         <v>95</v>
-      </c>
-      <c r="M7" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" t="s">
-        <v>88</v>
-      </c>
-      <c r="O7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" t="n">
-        <v>4</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3</v>
-      </c>
-      <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>2</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="s">
-        <v>96</v>
-      </c>
-      <c r="X7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="8">
@@ -2310,62 +3003,62 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
         <v>99</v>
       </c>
-      <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>100</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>101</v>
       </c>
-      <c r="K8" t="s">
+      <c r="O8" t="s">
         <v>102</v>
       </c>
-      <c r="L8" t="s">
-        <v>103</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2</v>
-      </c>
-      <c r="N8" t="s">
-        <v>104</v>
-      </c>
-      <c r="O8" t="s">
-        <v>61</v>
-      </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
+        <v>103</v>
+      </c>
+      <c r="X8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y8" t="s">
         <v>105</v>
-      </c>
-      <c r="X8" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="9">
@@ -2381,34 +3074,34 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" t="s">
         <v>108</v>
       </c>
-      <c r="G9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>109</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>110</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>111</v>
       </c>
-      <c r="L9" t="s">
-        <v>112</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>104</v>
-      </c>
       <c r="O9" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2420,13 +3113,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="X9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Y9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
@@ -2442,48 +3135,60 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
         <v>114</v>
       </c>
-      <c r="G10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>115</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>116</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>117</v>
-      </c>
-      <c r="L10" t="s">
-        <v>118</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
+      <c r="N10" t="s">
+        <v>101</v>
+      </c>
+      <c r="O10" t="s">
+        <v>102</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
       <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="X10" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="Y10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
@@ -2499,34 +3204,34 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" t="s">
         <v>122</v>
       </c>
-      <c r="G11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="L11" t="s">
         <v>123</v>
       </c>
-      <c r="J11" t="s">
-        <v>124</v>
-      </c>
-      <c r="K11" t="s">
-        <v>125</v>
-      </c>
-      <c r="L11" t="s">
-        <v>126</v>
-      </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="O11" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2538,7 +3243,7 @@
         <v>5</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
@@ -2548,13 +3253,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="X11" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="Y11" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
@@ -2570,7 +3275,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -2579,47 +3284,53 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="O12" t="s">
-        <v>61</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
+        <v>102</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="X12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Y12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13">
@@ -2635,52 +3346,50 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13" t="s">
         <v>136</v>
       </c>
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="L13" t="s">
         <v>137</v>
       </c>
-      <c r="J13" t="s">
-        <v>138</v>
-      </c>
-      <c r="K13" t="s">
-        <v>139</v>
-      </c>
-      <c r="L13" t="s">
-        <v>140</v>
-      </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="O13" t="s">
-        <v>61</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>4</v>
-      </c>
+      <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>138</v>
+      </c>
+      <c r="X13" t="s">
+        <v>139</v>
+      </c>
       <c r="Y13" t="s">
         <v>140</v>
       </c>
@@ -2698,46 +3407,46 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
         <v>142</v>
       </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>143</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" t="s">
         <v>144</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
         <v>145</v>
       </c>
-      <c r="L14" t="s">
-        <v>146</v>
-      </c>
-      <c r="M14" t="n">
-        <v>4</v>
-      </c>
-      <c r="N14" t="s">
-        <v>147</v>
-      </c>
       <c r="O14" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="P14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
@@ -2747,13 +3456,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="X14" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="Y14" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
@@ -2769,38 +3478,44 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>148</v>
+      </c>
+      <c r="J15" t="s">
+        <v>149</v>
+      </c>
+      <c r="K15" t="s">
+        <v>150</v>
+      </c>
+      <c r="L15" t="s">
         <v>151</v>
       </c>
-      <c r="G15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" t="s">
-        <v>152</v>
-      </c>
-      <c r="J15" t="s">
-        <v>153</v>
-      </c>
-      <c r="K15" t="s">
-        <v>154</v>
-      </c>
-      <c r="L15" t="s">
-        <v>155</v>
-      </c>
       <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>145</v>
+      </c>
+      <c r="O15" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
         <v>4</v>
       </c>
-      <c r="N15" t="s">
-        <v>147</v>
-      </c>
-      <c r="O15" t="s">
-        <v>79</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
       <c r="S15" t="n">
         <v>4</v>
       </c>
@@ -2812,13 +3527,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="X15" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Y15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
@@ -2834,31 +3549,35 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" t="s">
         <v>158</v>
       </c>
-      <c r="G16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="L16" t="s">
         <v>159</v>
       </c>
-      <c r="J16" t="s">
-        <v>153</v>
-      </c>
-      <c r="K16" t="s">
-        <v>160</v>
-      </c>
-      <c r="L16" t="s">
-        <v>161</v>
-      </c>
       <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
@@ -2869,13 +3588,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="X16" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Y16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
@@ -2891,58 +3610,48 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>162</v>
+      </c>
+      <c r="J17" t="s">
         <v>163</v>
       </c>
-      <c r="G17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
         <v>164</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" t="s">
         <v>165</v>
-      </c>
-      <c r="K17" t="s">
-        <v>166</v>
-      </c>
-      <c r="L17" t="s">
-        <v>167</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
-      <c r="N17" t="s">
-        <v>147</v>
-      </c>
-      <c r="O17" t="s">
-        <v>61</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
-      <c r="R17" t="n">
-        <v>4</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>166</v>
+      </c>
+      <c r="X17" t="s">
+        <v>167</v>
+      </c>
       <c r="Y17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18">
@@ -2958,7 +3667,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2967,25 +3676,25 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O18" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -3001,19 +3710,19 @@
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19">
@@ -3029,7 +3738,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -3038,10 +3747,10 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J19" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="K19" t="s">
         <v>180</v>
@@ -3050,35 +3759,41 @@
         <v>181</v>
       </c>
       <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>174</v>
+      </c>
+      <c r="O19" t="s">
+        <v>182</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
         <v>4</v>
       </c>
-      <c r="N19" t="s">
-        <v>173</v>
-      </c>
-      <c r="O19" t="s">
-        <v>61</v>
-      </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>4</v>
-      </c>
-      <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="X19" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y19" t="s">
         <v>183</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="20">
@@ -3094,34 +3809,34 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
+        <v>184</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
         <v>185</v>
       </c>
-      <c r="G20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>186</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>187</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>188</v>
       </c>
-      <c r="L20" t="s">
-        <v>189</v>
-      </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="O20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -3133,7 +3848,7 @@
         <v>5</v>
       </c>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
@@ -3143,13 +3858,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="X20" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="Y20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21">
@@ -3165,62 +3880,56 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
+        <v>190</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>191</v>
+      </c>
+      <c r="J21" t="s">
+        <v>186</v>
+      </c>
+      <c r="K21" t="s">
+        <v>192</v>
+      </c>
+      <c r="L21" t="s">
         <v>193</v>
       </c>
-      <c r="G21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" t="s">
-        <v>194</v>
-      </c>
-      <c r="J21" t="s">
-        <v>195</v>
-      </c>
-      <c r="K21" t="s">
-        <v>196</v>
-      </c>
-      <c r="L21" t="s">
-        <v>197</v>
-      </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="O21" t="s">
-        <v>89</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
       <c r="S21" t="n">
         <v>5</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="X21" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="Y21" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22">
@@ -3236,41 +3945,41 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
+        <v>195</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>196</v>
+      </c>
+      <c r="J22" t="s">
+        <v>197</v>
+      </c>
+      <c r="K22" t="s">
+        <v>198</v>
+      </c>
+      <c r="L22" t="s">
         <v>199</v>
       </c>
-      <c r="G22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
         <v>200</v>
       </c>
-      <c r="J22" t="s">
-        <v>201</v>
-      </c>
-      <c r="K22" t="s">
-        <v>202</v>
-      </c>
-      <c r="L22" t="s">
-        <v>203</v>
-      </c>
-      <c r="M22" t="n">
-        <v>4</v>
-      </c>
-      <c r="N22" t="s">
-        <v>141</v>
-      </c>
       <c r="O22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
       </c>
       <c r="Q22" t="s"/>
       <c r="R22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
@@ -3280,14 +3989,10 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>204</v>
-      </c>
-      <c r="X22" t="s">
-        <v>205</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23">
@@ -3303,7 +4008,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -3312,32 +4017,38 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J23" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="K23" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="L23" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>141</v>
+        <v>206</v>
       </c>
       <c r="O23" t="s">
         <v>52</v>
       </c>
-      <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
       <c r="R23" t="n">
         <v>5</v>
       </c>
-      <c r="S23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
         <v>5</v>
@@ -3345,14 +4056,10 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>212</v>
-      </c>
-      <c r="X23" t="s">
-        <v>213</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24">
@@ -3368,7 +4075,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -3377,43 +4084,49 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="J24" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="K24" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>212</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
         <v>4</v>
       </c>
-      <c r="N24" t="s">
-        <v>141</v>
-      </c>
-      <c r="O24" t="s">
-        <v>61</v>
-      </c>
-      <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>220</v>
-      </c>
-      <c r="X24" t="s">
-        <v>221</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25">
@@ -3429,7 +4142,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -3438,37 +4151,37 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="J25" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="K25" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>141</v>
+        <v>212</v>
       </c>
       <c r="O25" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="P25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
@@ -3478,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="X25" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="Y25" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26">
@@ -3500,7 +4213,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -3509,35 +4222,29 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="J26" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="K26" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>141</v>
+        <v>212</v>
       </c>
       <c r="O26" t="s">
-        <v>61</v>
-      </c>
-      <c r="P26" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>3</v>
-      </c>
-      <c r="R26" t="n">
-        <v>3</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
       <c r="S26" t="n">
         <v>4</v>
       </c>
@@ -3549,13 +4256,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="X26" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="Y26" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27">
@@ -3571,7 +4278,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -3580,47 +4287,39 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="J27" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="K27" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="L27" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
-      <c r="N27" t="s">
-        <v>242</v>
-      </c>
-      <c r="O27" t="s">
-        <v>61</v>
-      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
       <c r="P27" t="s"/>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>4</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="X27" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="Y27" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28">
@@ -3636,7 +4335,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -3645,25 +4344,25 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="J28" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="K28" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="L28" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="O28" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3672,7 +4371,7 @@
         <v>5</v>
       </c>
       <c r="R28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3684,14 +4383,10 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>243</v>
-      </c>
-      <c r="X28" t="s">
-        <v>244</v>
-      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29">
@@ -3707,7 +4402,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3716,43 +4411,49 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="J29" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="K29" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="L29" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
+        <v>212</v>
+      </c>
+      <c r="O29" t="s">
+        <v>102</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
         <v>242</v>
-      </c>
-      <c r="O29" t="s">
-        <v>79</v>
-      </c>
-      <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
-      <c r="S29" t="s"/>
-      <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="s">
-        <v>257</v>
-      </c>
-      <c r="X29" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="30">
@@ -3768,7 +4469,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -3777,34 +4478,34 @@
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="J30" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="K30" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="L30" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="O30" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
       </c>
       <c r="Q30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -3816,14 +4517,10 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>265</v>
-      </c>
-      <c r="X30" t="s">
-        <v>258</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31">
@@ -3839,7 +4536,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3848,49 +4545,53 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="J31" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="K31" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="L31" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="O31" t="s">
-        <v>61</v>
-      </c>
-      <c r="P31" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
       <c r="Q31" t="n">
         <v>5</v>
       </c>
       <c r="R31" t="n">
         <v>5</v>
       </c>
-      <c r="S31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="X31" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="Y31" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32">
@@ -3906,7 +4607,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="G32" t="s">
         <v>45</v>
@@ -3915,49 +4616,47 @@
         <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="J32" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="K32" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="L32" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="O32" t="s">
-        <v>282</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P32" t="s"/>
       <c r="Q32" t="n">
-        <v>5</v>
-      </c>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>262</v>
+      </c>
+      <c r="X32" t="s">
+        <v>263</v>
+      </c>
       <c r="Y32" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33">
@@ -3973,7 +4672,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -3982,34 +4681,38 @@
         <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="J33" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="K33" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="L33" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="O33" t="s">
-        <v>61</v>
-      </c>
-      <c r="P33" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
       <c r="Q33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R33" t="n">
         <v>5</v>
       </c>
-      <c r="S33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
         <v>5</v>
@@ -4017,10 +4720,14 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>262</v>
+      </c>
+      <c r="X33" t="s">
+        <v>263</v>
+      </c>
       <c r="Y33" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34">
@@ -4036,7 +4743,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="G34" t="s">
         <v>45</v>
@@ -4045,53 +4752,53 @@
         <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="J34" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="K34" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="L34" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="O34" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="P34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="X34" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="Y34" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35">
@@ -4107,7 +4814,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="G35" t="s">
         <v>45</v>
@@ -4116,32 +4823,38 @@
         <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="J35" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="K35" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="L35" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>303</v>
+        <v>200</v>
       </c>
       <c r="O35" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="P35" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q35" t="s"/>
-      <c r="R35" t="s"/>
-      <c r="S35" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
         <v>5</v>
@@ -4150,13 +4863,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="X35" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="Y35" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36">
@@ -4172,7 +4885,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="G36" t="s">
         <v>45</v>
@@ -4181,28 +4894,28 @@
         <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="J36" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="K36" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="L36" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="O36" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="P36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q36" t="n">
         <v>5</v>
@@ -4215,19 +4928,19 @@
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="X36" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="Y36" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37">
@@ -4243,7 +4956,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="G37" t="s">
         <v>45</v>
@@ -4252,38 +4965,34 @@
         <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="J37" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="K37" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="L37" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>317</v>
+        <v>200</v>
       </c>
       <c r="O37" t="s">
-        <v>282</v>
+        <v>62</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
       </c>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q37" t="s"/>
       <c r="R37" t="n">
         <v>5</v>
       </c>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
         <v>5</v>
@@ -4292,13 +5001,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="X37" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="Y37" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38">
@@ -4314,7 +5023,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -4323,27 +5032,29 @@
         <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="J38" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="K38" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="L38" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>317</v>
+        <v>200</v>
       </c>
       <c r="O38" t="s">
-        <v>61</v>
-      </c>
-      <c r="P38" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
       <c r="Q38" t="n">
         <v>5</v>
       </c>
@@ -4367,7 +5078,7 @@
         <v>296</v>
       </c>
       <c r="Y38" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39">
@@ -4383,7 +5094,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -4392,32 +5103,38 @@
         <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="J39" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="K39" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="L39" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>317</v>
+        <v>200</v>
       </c>
       <c r="O39" t="s">
-        <v>61</v>
-      </c>
-      <c r="P39" t="s"/>
-      <c r="Q39" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
       <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
         <v>5</v>
@@ -4432,7 +5149,7 @@
         <v>296</v>
       </c>
       <c r="Y39" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
     </row>
     <row r="40">
@@ -4448,7 +5165,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
@@ -4457,53 +5174,47 @@
         <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="J40" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="K40" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="L40" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>303</v>
+        <v>200</v>
       </c>
       <c r="O40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P40" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>4</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
       <c r="R40" t="n">
-        <v>4</v>
-      </c>
-      <c r="S40" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="X40" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="Y40" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
     </row>
     <row r="41">
@@ -4519,7 +5230,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -4528,53 +5239,43 @@
         <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="J41" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="K41" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="L41" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>303</v>
+        <v>200</v>
       </c>
       <c r="O41" t="s">
-        <v>89</v>
-      </c>
-      <c r="P41" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" t="n">
-        <v>5</v>
-      </c>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>5</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="X41" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="Y41" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42">
@@ -4590,7 +5291,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="G42" t="s">
         <v>45</v>
@@ -4599,25 +5300,25 @@
         <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="J42" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="K42" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="L42" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>303</v>
+        <v>200</v>
       </c>
       <c r="O42" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4638,10 +5339,14 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>331</v>
+      </c>
+      <c r="X42" t="s">
+        <v>332</v>
+      </c>
       <c r="Y42" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
     </row>
     <row r="43">
@@ -4657,7 +5362,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="G43" t="s">
         <v>45</v>
@@ -4666,25 +5371,25 @@
         <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="J43" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="K43" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="L43" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>303</v>
+        <v>200</v>
       </c>
       <c r="O43" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4705,10 +5410,14 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>331</v>
+      </c>
+      <c r="X43" t="s">
+        <v>332</v>
+      </c>
       <c r="Y43" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44">
@@ -4724,7 +5433,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="G44" t="s">
         <v>45</v>
@@ -4733,43 +5442,49 @@
         <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="J44" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="K44" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="L44" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="O44" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="P44" t="s"/>
-      <c r="Q44" t="s"/>
-      <c r="R44" t="s"/>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
       <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>361</v>
+        <v>331</v>
       </c>
       <c r="X44" t="s">
-        <v>362</v>
+        <v>332</v>
       </c>
       <c r="Y44" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45">
@@ -4785,7 +5500,7 @@
         <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="G45" t="s">
         <v>45</v>
@@ -4794,53 +5509,53 @@
         <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="J45" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="K45" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="L45" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="M45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="O45" t="s">
-        <v>282</v>
+        <v>62</v>
       </c>
       <c r="P45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
         <v>4</v>
-      </c>
-      <c r="S45" t="n">
-        <v>1</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="X45" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="Y45" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
     </row>
     <row r="46">
@@ -4856,7 +5571,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="G46" t="s">
         <v>45</v>
@@ -4865,53 +5580,47 @@
         <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="J46" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="K46" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="L46" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="O46" t="s">
-        <v>61</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P46" t="s"/>
       <c r="Q46" t="n">
         <v>5</v>
       </c>
-      <c r="R46" t="n">
-        <v>5</v>
-      </c>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="X46" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="Y46" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
     </row>
     <row r="47">
@@ -4927,7 +5636,7 @@
         <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="G47" t="s">
         <v>45</v>
@@ -4936,25 +5645,25 @@
         <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="J47" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="K47" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="L47" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="O47" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -4976,13 +5685,13 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
       <c r="X47" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="Y47" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
     </row>
     <row r="48">
@@ -4998,7 +5707,7 @@
         <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="G48" t="s">
         <v>45</v>
@@ -5007,53 +5716,53 @@
         <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="J48" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="K48" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="L48" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="O48" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="X48" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="Y48" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
     </row>
     <row r="49">
@@ -5069,7 +5778,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="G49" t="s">
         <v>45</v>
@@ -5078,28 +5787,28 @@
         <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="J49" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="K49" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="L49" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="O49" t="s">
-        <v>282</v>
+        <v>62</v>
       </c>
       <c r="P49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q49" t="n">
         <v>5</v>
@@ -5118,13 +5827,13 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="X49" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="Y49" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
     </row>
     <row r="50">
@@ -5140,7 +5849,7 @@
         <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="G50" t="s">
         <v>45</v>
@@ -5149,53 +5858,43 @@
         <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="J50" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="K50" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="L50" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="O50" t="s">
-        <v>89</v>
-      </c>
-      <c r="P50" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>5</v>
-      </c>
-      <c r="R50" t="n">
-        <v>5</v>
-      </c>
-      <c r="S50" t="n">
-        <v>5</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
-      <c r="U50" t="n">
-        <v>5</v>
-      </c>
+      <c r="U50" t="s"/>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="X50" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="Y50" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
     </row>
     <row r="51">
@@ -5211,7 +5910,7 @@
         <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="G51" t="s">
         <v>45</v>
@@ -5220,25 +5919,25 @@
         <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="J51" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="K51" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="L51" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="O51" t="s">
-        <v>282</v>
+        <v>102</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5260,13 +5959,13 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="X51" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="Y51" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
     </row>
     <row r="52">
@@ -5282,7 +5981,7 @@
         <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="G52" t="s">
         <v>45</v>
@@ -5291,38 +5990,34 @@
         <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="J52" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="K52" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="L52" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="O52" t="s">
-        <v>52</v>
-      </c>
-      <c r="P52" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P52" t="s"/>
       <c r="Q52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R52" t="n">
-        <v>4</v>
-      </c>
-      <c r="S52" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
         <v>5</v>
@@ -5331,13 +6026,13 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="X52" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="Y52" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
     </row>
     <row r="53">
@@ -5353,7 +6048,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="G53" t="s">
         <v>45</v>
@@ -5362,53 +6057,43 @@
         <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="J53" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="K53" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="L53" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="O53" t="s">
-        <v>61</v>
-      </c>
-      <c r="P53" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>5</v>
-      </c>
-      <c r="R53" t="n">
-        <v>5</v>
-      </c>
-      <c r="S53" t="n">
-        <v>5</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
-      <c r="U53" t="n">
-        <v>5</v>
-      </c>
+      <c r="U53" t="s"/>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="X53" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="Y53" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
     </row>
     <row r="54">
@@ -5424,7 +6109,7 @@
         <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="G54" t="s">
         <v>45</v>
@@ -5433,25 +6118,25 @@
         <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="J54" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="K54" t="s">
-        <v>12</v>
+        <v>413</v>
       </c>
       <c r="L54" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="O54" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5473,13 +6158,13 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="X54" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="Y54" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
     </row>
     <row r="55">
@@ -5495,7 +6180,7 @@
         <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="G55" t="s">
         <v>45</v>
@@ -5504,30 +6189,34 @@
         <v>46</v>
       </c>
       <c r="I55" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="J55" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="K55" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="L55" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
       <c r="O55" t="s">
-        <v>282</v>
-      </c>
-      <c r="P55" t="s"/>
-      <c r="Q55" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
       <c r="R55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S55" t="n">
         <v>5</v>
@@ -5539,14 +6228,10 @@
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s">
-        <v>361</v>
-      </c>
-      <c r="X55" t="s">
-        <v>362</v>
-      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="56">
@@ -5562,7 +6247,7 @@
         <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="G56" t="s">
         <v>45</v>
@@ -5571,31 +6256,33 @@
         <v>46</v>
       </c>
       <c r="I56" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="J56" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="K56" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="L56" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="M56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="O56" t="s">
-        <v>61</v>
-      </c>
-      <c r="P56" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q56" t="s"/>
-      <c r="R56" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
       <c r="S56" t="s"/>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
@@ -5604,14 +6291,10 @@
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s">
-        <v>361</v>
-      </c>
-      <c r="X56" t="s">
-        <v>362</v>
-      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
     </row>
     <row r="57">
@@ -5627,7 +6310,7 @@
         <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="G57" t="s">
         <v>45</v>
@@ -5636,53 +6319,53 @@
         <v>46</v>
       </c>
       <c r="I57" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="J57" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="K57" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="L57" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="M57" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="O57" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q57" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S57" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>361</v>
+        <v>433</v>
       </c>
       <c r="X57" t="s">
-        <v>362</v>
+        <v>434</v>
       </c>
       <c r="Y57" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
     </row>
     <row r="58">
@@ -5698,7 +6381,7 @@
         <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="G58" t="s">
         <v>45</v>
@@ -5707,53 +6390,2776 @@
         <v>46</v>
       </c>
       <c r="I58" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="J58" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="K58" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="L58" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="M58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>455</v>
+        <v>426</v>
       </c>
       <c r="O58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>361</v>
+        <v>433</v>
       </c>
       <c r="X58" t="s">
-        <v>362</v>
+        <v>434</v>
       </c>
       <c r="Y58" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>442</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>443</v>
+      </c>
+      <c r="J59" t="s">
+        <v>444</v>
+      </c>
+      <c r="K59" t="s">
+        <v>445</v>
+      </c>
+      <c r="L59" t="s">
+        <v>446</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>426</v>
+      </c>
+      <c r="O59" t="s">
+        <v>52</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>433</v>
+      </c>
+      <c r="X59" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>448</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>449</v>
+      </c>
+      <c r="J60" t="s">
+        <v>450</v>
+      </c>
+      <c r="K60" t="s">
+        <v>451</v>
+      </c>
+      <c r="L60" t="s">
+        <v>452</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>453</v>
+      </c>
+      <c r="O60" t="s">
+        <v>52</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>433</v>
+      </c>
+      <c r="X60" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>455</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
         <v>456</v>
+      </c>
+      <c r="J61" t="s">
+        <v>457</v>
+      </c>
+      <c r="K61" t="s">
+        <v>458</v>
+      </c>
+      <c r="L61" t="s">
+        <v>459</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>460</v>
+      </c>
+      <c r="O61" t="s">
+        <v>52</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>433</v>
+      </c>
+      <c r="X61" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>462</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>463</v>
+      </c>
+      <c r="J62" t="s">
+        <v>464</v>
+      </c>
+      <c r="K62" t="s">
+        <v>465</v>
+      </c>
+      <c r="L62" t="s">
+        <v>466</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>467</v>
+      </c>
+      <c r="O62" t="s">
+        <v>182</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>468</v>
+      </c>
+      <c r="X62" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>471</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>472</v>
+      </c>
+      <c r="J63" t="s">
+        <v>473</v>
+      </c>
+      <c r="K63" t="s">
+        <v>474</v>
+      </c>
+      <c r="L63" t="s">
+        <v>475</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>467</v>
+      </c>
+      <c r="O63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>468</v>
+      </c>
+      <c r="X63" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>477</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>478</v>
+      </c>
+      <c r="J64" t="s">
+        <v>479</v>
+      </c>
+      <c r="K64" t="s">
+        <v>480</v>
+      </c>
+      <c r="L64" t="s">
+        <v>481</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>467</v>
+      </c>
+      <c r="O64" t="s">
+        <v>62</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>2</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>482</v>
+      </c>
+      <c r="X64" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>485</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>486</v>
+      </c>
+      <c r="J65" t="s">
+        <v>487</v>
+      </c>
+      <c r="K65" t="s">
+        <v>488</v>
+      </c>
+      <c r="L65" t="s">
+        <v>489</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>467</v>
+      </c>
+      <c r="O65" t="s">
+        <v>62</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>433</v>
+      </c>
+      <c r="X65" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>491</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>492</v>
+      </c>
+      <c r="J66" t="s">
+        <v>493</v>
+      </c>
+      <c r="K66" t="s">
+        <v>494</v>
+      </c>
+      <c r="L66" t="s">
+        <v>495</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>467</v>
+      </c>
+      <c r="O66" t="s">
+        <v>62</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>433</v>
+      </c>
+      <c r="X66" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>497</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>498</v>
+      </c>
+      <c r="J67" t="s">
+        <v>499</v>
+      </c>
+      <c r="K67" t="s">
+        <v>500</v>
+      </c>
+      <c r="L67" t="s">
+        <v>501</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>453</v>
+      </c>
+      <c r="O67" t="s">
+        <v>62</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>433</v>
+      </c>
+      <c r="X67" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>503</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>504</v>
+      </c>
+      <c r="J68" t="s">
+        <v>505</v>
+      </c>
+      <c r="K68" t="s">
+        <v>506</v>
+      </c>
+      <c r="L68" t="s">
+        <v>507</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>453</v>
+      </c>
+      <c r="O68" t="s">
+        <v>102</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>433</v>
+      </c>
+      <c r="X68" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>509</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>510</v>
+      </c>
+      <c r="J69" t="s">
+        <v>511</v>
+      </c>
+      <c r="K69" t="s">
+        <v>512</v>
+      </c>
+      <c r="L69" t="s">
+        <v>513</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>453</v>
+      </c>
+      <c r="O69" t="s">
+        <v>182</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>433</v>
+      </c>
+      <c r="X69" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>515</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>516</v>
+      </c>
+      <c r="J70" t="s">
+        <v>517</v>
+      </c>
+      <c r="K70" t="s">
+        <v>518</v>
+      </c>
+      <c r="L70" t="s">
+        <v>519</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>453</v>
+      </c>
+      <c r="O70" t="s">
+        <v>52</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>433</v>
+      </c>
+      <c r="X70" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>521</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>522</v>
+      </c>
+      <c r="J71" t="s">
+        <v>523</v>
+      </c>
+      <c r="K71" t="s">
+        <v>524</v>
+      </c>
+      <c r="L71" t="s">
+        <v>525</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>453</v>
+      </c>
+      <c r="O71" t="s">
+        <v>102</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>526</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>527</v>
+      </c>
+      <c r="J72" t="s">
+        <v>528</v>
+      </c>
+      <c r="K72" t="s">
+        <v>529</v>
+      </c>
+      <c r="L72" t="s">
+        <v>530</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>453</v>
+      </c>
+      <c r="O72" t="s">
+        <v>52</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>531</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>532</v>
+      </c>
+      <c r="J73" t="s">
+        <v>533</v>
+      </c>
+      <c r="K73" t="s">
+        <v>534</v>
+      </c>
+      <c r="L73" t="s">
+        <v>535</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>536</v>
+      </c>
+      <c r="O73" t="s">
+        <v>52</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>537</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>538</v>
+      </c>
+      <c r="J74" t="s">
+        <v>539</v>
+      </c>
+      <c r="K74" t="s">
+        <v>540</v>
+      </c>
+      <c r="L74" t="s">
+        <v>541</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>536</v>
+      </c>
+      <c r="O74" t="s">
+        <v>62</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>542</v>
+      </c>
+      <c r="X74" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>545</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>546</v>
+      </c>
+      <c r="J75" t="s">
+        <v>547</v>
+      </c>
+      <c r="K75" t="s">
+        <v>548</v>
+      </c>
+      <c r="L75" t="s">
+        <v>549</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>536</v>
+      </c>
+      <c r="O75" t="s">
+        <v>102</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>542</v>
+      </c>
+      <c r="X75" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>551</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>552</v>
+      </c>
+      <c r="J76" t="s">
+        <v>553</v>
+      </c>
+      <c r="K76" t="s">
+        <v>554</v>
+      </c>
+      <c r="L76" t="s">
+        <v>555</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s">
+        <v>536</v>
+      </c>
+      <c r="O76" t="s">
+        <v>182</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>556</v>
+      </c>
+      <c r="X76" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>559</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>560</v>
+      </c>
+      <c r="J77" t="s">
+        <v>561</v>
+      </c>
+      <c r="K77" t="s">
+        <v>562</v>
+      </c>
+      <c r="L77" t="s">
+        <v>563</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>536</v>
+      </c>
+      <c r="O77" t="s">
+        <v>62</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>542</v>
+      </c>
+      <c r="X77" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>565</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>566</v>
+      </c>
+      <c r="J78" t="s">
+        <v>567</v>
+      </c>
+      <c r="K78" t="s">
+        <v>568</v>
+      </c>
+      <c r="L78" t="s">
+        <v>569</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>570</v>
+      </c>
+      <c r="O78" t="s">
+        <v>182</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>542</v>
+      </c>
+      <c r="X78" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>572</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>573</v>
+      </c>
+      <c r="J79" t="s">
+        <v>574</v>
+      </c>
+      <c r="K79" t="s">
+        <v>575</v>
+      </c>
+      <c r="L79" t="s">
+        <v>576</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>570</v>
+      </c>
+      <c r="O79" t="s">
+        <v>52</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>2</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>542</v>
+      </c>
+      <c r="X79" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>578</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>579</v>
+      </c>
+      <c r="J80" t="s">
+        <v>580</v>
+      </c>
+      <c r="K80" t="s">
+        <v>581</v>
+      </c>
+      <c r="L80" t="s">
+        <v>582</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>570</v>
+      </c>
+      <c r="O80" t="s">
+        <v>62</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>583</v>
+      </c>
+      <c r="X80" t="s">
+        <v>584</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>586</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>587</v>
+      </c>
+      <c r="J81" t="s">
+        <v>588</v>
+      </c>
+      <c r="K81" t="s">
+        <v>589</v>
+      </c>
+      <c r="L81" t="s">
+        <v>590</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>570</v>
+      </c>
+      <c r="O81" t="s">
+        <v>62</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>542</v>
+      </c>
+      <c r="X81" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>592</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>593</v>
+      </c>
+      <c r="J82" t="s">
+        <v>594</v>
+      </c>
+      <c r="K82" t="s">
+        <v>595</v>
+      </c>
+      <c r="L82" t="s">
+        <v>596</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>570</v>
+      </c>
+      <c r="O82" t="s">
+        <v>182</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>542</v>
+      </c>
+      <c r="X82" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>598</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>599</v>
+      </c>
+      <c r="J83" t="s">
+        <v>600</v>
+      </c>
+      <c r="K83" t="s">
+        <v>601</v>
+      </c>
+      <c r="L83" t="s">
+        <v>602</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>570</v>
+      </c>
+      <c r="O83" t="s">
+        <v>79</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>542</v>
+      </c>
+      <c r="X83" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>604</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>605</v>
+      </c>
+      <c r="J84" t="s">
+        <v>606</v>
+      </c>
+      <c r="K84" t="s">
+        <v>607</v>
+      </c>
+      <c r="L84" t="s">
+        <v>608</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
+        <v>570</v>
+      </c>
+      <c r="O84" t="s">
+        <v>52</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>1</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>583</v>
+      </c>
+      <c r="X84" t="s">
+        <v>584</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>610</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>611</v>
+      </c>
+      <c r="J85" t="s">
+        <v>612</v>
+      </c>
+      <c r="K85" t="s">
+        <v>613</v>
+      </c>
+      <c r="L85" t="s">
+        <v>614</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>615</v>
+      </c>
+      <c r="O85" t="s">
+        <v>52</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>542</v>
+      </c>
+      <c r="X85" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>617</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>618</v>
+      </c>
+      <c r="J86" t="s">
+        <v>619</v>
+      </c>
+      <c r="K86" t="s">
+        <v>620</v>
+      </c>
+      <c r="L86" t="s">
+        <v>621</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>615</v>
+      </c>
+      <c r="O86" t="s">
+        <v>182</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>542</v>
+      </c>
+      <c r="X86" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>623</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>624</v>
+      </c>
+      <c r="J87" t="s">
+        <v>625</v>
+      </c>
+      <c r="K87" t="s">
+        <v>626</v>
+      </c>
+      <c r="L87" t="s">
+        <v>627</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>615</v>
+      </c>
+      <c r="O87" t="s">
+        <v>79</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>542</v>
+      </c>
+      <c r="X87" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>629</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>630</v>
+      </c>
+      <c r="J88" t="s">
+        <v>631</v>
+      </c>
+      <c r="K88" t="s">
+        <v>632</v>
+      </c>
+      <c r="L88" t="s">
+        <v>633</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>634</v>
+      </c>
+      <c r="O88" t="s">
+        <v>52</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>542</v>
+      </c>
+      <c r="X88" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>636</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>637</v>
+      </c>
+      <c r="J89" t="s">
+        <v>638</v>
+      </c>
+      <c r="K89" t="s">
+        <v>639</v>
+      </c>
+      <c r="L89" t="s">
+        <v>640</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>634</v>
+      </c>
+      <c r="O89" t="s">
+        <v>62</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>542</v>
+      </c>
+      <c r="X89" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>642</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>643</v>
+      </c>
+      <c r="J90" t="s">
+        <v>644</v>
+      </c>
+      <c r="K90" t="s">
+        <v>645</v>
+      </c>
+      <c r="L90" t="s">
+        <v>646</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>634</v>
+      </c>
+      <c r="O90" t="s">
+        <v>62</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>542</v>
+      </c>
+      <c r="X90" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
+        <v>648</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s">
+        <v>649</v>
+      </c>
+      <c r="J91" t="s">
+        <v>650</v>
+      </c>
+      <c r="K91" t="s">
+        <v>12</v>
+      </c>
+      <c r="L91" t="s">
+        <v>651</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>634</v>
+      </c>
+      <c r="O91" t="s">
+        <v>52</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>542</v>
+      </c>
+      <c r="X91" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s">
+        <v>653</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s">
+        <v>654</v>
+      </c>
+      <c r="J92" t="s">
+        <v>655</v>
+      </c>
+      <c r="K92" t="s">
+        <v>656</v>
+      </c>
+      <c r="L92" t="s">
+        <v>657</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>658</v>
+      </c>
+      <c r="O92" t="s">
+        <v>182</v>
+      </c>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>542</v>
+      </c>
+      <c r="X92" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s">
+        <v>660</v>
+      </c>
+      <c r="G93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" t="s">
+        <v>661</v>
+      </c>
+      <c r="J93" t="s">
+        <v>662</v>
+      </c>
+      <c r="K93" t="s">
+        <v>663</v>
+      </c>
+      <c r="L93" t="s">
+        <v>664</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>658</v>
+      </c>
+      <c r="O93" t="s">
+        <v>52</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>3</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>3</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>542</v>
+      </c>
+      <c r="X93" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" t="s">
+        <v>666</v>
+      </c>
+      <c r="G94" t="s">
+        <v>45</v>
+      </c>
+      <c r="H94" t="s">
+        <v>46</v>
+      </c>
+      <c r="I94" t="s">
+        <v>667</v>
+      </c>
+      <c r="J94" t="s">
+        <v>668</v>
+      </c>
+      <c r="K94" t="s">
+        <v>669</v>
+      </c>
+      <c r="L94" t="s">
+        <v>670</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>671</v>
+      </c>
+      <c r="O94" t="s">
+        <v>52</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>542</v>
+      </c>
+      <c r="X94" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" t="s">
+        <v>673</v>
+      </c>
+      <c r="G95" t="s">
+        <v>45</v>
+      </c>
+      <c r="H95" t="s">
+        <v>46</v>
+      </c>
+      <c r="I95" t="s">
+        <v>674</v>
+      </c>
+      <c r="J95" t="s">
+        <v>675</v>
+      </c>
+      <c r="K95" t="s">
+        <v>676</v>
+      </c>
+      <c r="L95" t="s">
+        <v>677</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="s">
+        <v>671</v>
+      </c>
+      <c r="O95" t="s">
+        <v>62</v>
+      </c>
+      <c r="P95" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>542</v>
+      </c>
+      <c r="X95" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" t="s">
+        <v>679</v>
+      </c>
+      <c r="G96" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I96" t="s">
+        <v>680</v>
+      </c>
+      <c r="J96" t="s">
+        <v>681</v>
+      </c>
+      <c r="K96" t="s">
+        <v>682</v>
+      </c>
+      <c r="L96" t="s">
+        <v>683</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>671</v>
+      </c>
+      <c r="O96" t="s">
+        <v>62</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>542</v>
+      </c>
+      <c r="X96" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>65415</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" t="s">
+        <v>685</v>
+      </c>
+      <c r="G97" t="s">
+        <v>45</v>
+      </c>
+      <c r="H97" t="s">
+        <v>46</v>
+      </c>
+      <c r="I97" t="s">
+        <v>686</v>
+      </c>
+      <c r="J97" t="s">
+        <v>687</v>
+      </c>
+      <c r="K97" t="s">
+        <v>688</v>
+      </c>
+      <c r="L97" t="s">
+        <v>689</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>690</v>
+      </c>
+      <c r="O97" t="s">
+        <v>62</v>
+      </c>
+      <c r="P97" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>542</v>
+      </c>
+      <c r="X97" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>691</v>
       </c>
     </row>
   </sheetData>
